--- a/Documentacion/PREGAME/1. ELICITACION/1.6 Backlog/7185_G5_Cadena_Caicedo_Leiva_Backlog-Sprint1_v1.0.xlsx
+++ b/Documentacion/PREGAME/1. ELICITACION/1.6 Backlog/7185_G5_Cadena_Caicedo_Leiva_Backlog-Sprint1_v1.0.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\s_lei\Desktop\Analisis y diseño de software\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\s_lei\Desktop\Analisis y diseño de software\7185_G5\Documentacion\PREGAME\1. ELICITACION\1.6 Backlog\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{012B9314-9E9D-4347-A948-C6222023C04F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FC83AFB-5C59-4B75-8FB2-F9FAAA7A44E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Instrucciones" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,6 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Datos!$A$9:$G$36</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -325,7 +324,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="11">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -384,6 +383,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FF00FF00"/>
         <bgColor rgb="FF00FF00"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor rgb="FFFFFFCC"/>
       </patternFill>
     </fill>
   </fills>
@@ -984,7 +989,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="126">
+  <cellXfs count="129">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1162,51 +1167,13 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1217,6 +1184,44 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1225,6 +1230,11 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="165" fontId="10" fillId="11" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment textRotation="90"/>
+    </xf>
+    <xf numFmtId="1" fontId="10" fillId="11" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="10" fillId="11" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1422,6 +1432,123 @@
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>44576</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>44577</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>44578</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>44579</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>44580</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>44581</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>44582</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>44583</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>44584</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>44585</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>44586</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>44587</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>44588</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>44589</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>44590</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>44591</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>44592</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>44593</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>44594</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>44595</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>44596</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>44597</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>44598</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>44599</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>44600</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>44601</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>44602</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>44603</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>44604</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>44605</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>44606</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>44607</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>44608</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>44609</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>44610</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>44611</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>44612</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>44613</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>44614</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>44615</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1827,33 +1954,6 @@
                 <c:pt idx="44">
                   <c:v>0</c:v>
                 </c:pt>
-                <c:pt idx="45">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>0</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -2021,33 +2121,6 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="53">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -2227,33 +2300,6 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="53">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -2534,6 +2580,123 @@
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>44576</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>44577</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>44578</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>44579</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>44580</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>44581</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>44582</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>44583</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>44584</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>44585</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>44586</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>44587</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>44588</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>44589</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>44590</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>44591</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>44592</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>44593</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>44594</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>44595</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>44596</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>44597</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>44598</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>44599</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>44600</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>44601</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>44602</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>44603</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>44604</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>44605</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>44606</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>44607</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>44608</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>44609</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>44610</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>44611</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>44612</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>44613</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>44614</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>44615</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5495,11 +5658,11 @@
   </sheetPr>
   <dimension ref="A1:BL1004"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <pane xSplit="7" ySplit="9" topLeftCell="H10" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
-      <selection pane="bottomRight" activeCell="G21" sqref="G21"/>
+      <selection pane="bottomRight" activeCell="H5" sqref="H5:AZ5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -5599,159 +5762,159 @@
       </c>
       <c r="N4" s="27" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve"> </v>
+        <v>D</v>
       </c>
       <c r="O4" s="27" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve"> </v>
+        <v>L</v>
       </c>
       <c r="P4" s="27" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve"> </v>
+        <v>M</v>
       </c>
       <c r="Q4" s="26" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve"> </v>
+        <v>X</v>
       </c>
       <c r="R4" s="26" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve"> </v>
+        <v>J</v>
       </c>
       <c r="S4" s="26" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve"> </v>
+        <v>V</v>
       </c>
       <c r="T4" s="26" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve"> </v>
+        <v>S</v>
       </c>
       <c r="U4" s="26" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve"> </v>
+        <v>D</v>
       </c>
       <c r="V4" s="27" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve"> </v>
+        <v>L</v>
       </c>
       <c r="W4" s="27" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve"> </v>
+        <v>M</v>
       </c>
       <c r="X4" s="27" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve"> </v>
+        <v>X</v>
       </c>
       <c r="Y4" s="27" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve"> </v>
+        <v>J</v>
       </c>
       <c r="Z4" s="27" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve"> </v>
+        <v>V</v>
       </c>
       <c r="AA4" s="26" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve"> </v>
+        <v>S</v>
       </c>
       <c r="AB4" s="26" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve"> </v>
+        <v>D</v>
       </c>
       <c r="AC4" s="25" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve"> </v>
+        <v>L</v>
       </c>
       <c r="AD4" s="25" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve"> </v>
+        <v>M</v>
       </c>
       <c r="AE4" s="26" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve"> </v>
+        <v>X</v>
       </c>
       <c r="AF4" s="27" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve"> </v>
+        <v>J</v>
       </c>
       <c r="AG4" s="27" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve"> </v>
+        <v>V</v>
       </c>
       <c r="AH4" s="27" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve"> </v>
+        <v>S</v>
       </c>
       <c r="AI4" s="27" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve"> </v>
+        <v>D</v>
       </c>
       <c r="AJ4" s="27" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve"> </v>
+        <v>L</v>
       </c>
       <c r="AK4" s="25" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve"> </v>
+        <v>M</v>
       </c>
       <c r="AL4" s="26" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve"> </v>
+        <v>X</v>
       </c>
       <c r="AM4" s="27" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve"> </v>
+        <v>J</v>
       </c>
       <c r="AN4" s="27" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve"> </v>
+        <v>V</v>
       </c>
       <c r="AO4" s="27" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve"> </v>
+        <v>S</v>
       </c>
       <c r="AP4" s="27" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve"> </v>
+        <v>D</v>
       </c>
       <c r="AQ4" s="27" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve"> </v>
+        <v>L</v>
       </c>
       <c r="AR4" s="25" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve"> </v>
+        <v>M</v>
       </c>
       <c r="AS4" s="26" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve"> </v>
+        <v>X</v>
       </c>
       <c r="AT4" s="27" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve"> </v>
+        <v>J</v>
       </c>
       <c r="AU4" s="27" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve"> </v>
+        <v>V</v>
       </c>
       <c r="AV4" s="27" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve"> </v>
+        <v>S</v>
       </c>
       <c r="AW4" s="27" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve"> </v>
+        <v>D</v>
       </c>
       <c r="AX4" s="27" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve"> </v>
+        <v>L</v>
       </c>
       <c r="AY4" s="25" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve"> </v>
+        <v>M</v>
       </c>
       <c r="AZ4" s="26" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve"> </v>
+        <v>X</v>
       </c>
       <c r="BA4" s="27" t="str">
         <f t="shared" si="0"/>
@@ -5819,45 +5982,123 @@
       <c r="M5" s="31">
         <v>44576</v>
       </c>
-      <c r="N5" s="31"/>
-      <c r="O5" s="31"/>
-      <c r="P5" s="31"/>
-      <c r="Q5" s="31"/>
-      <c r="R5" s="31"/>
-      <c r="S5" s="30"/>
-      <c r="T5" s="30"/>
-      <c r="U5" s="30"/>
-      <c r="V5" s="30"/>
-      <c r="W5" s="31"/>
-      <c r="X5" s="31"/>
-      <c r="Y5" s="31"/>
-      <c r="Z5" s="31"/>
-      <c r="AA5" s="31"/>
-      <c r="AB5" s="31"/>
-      <c r="AC5" s="30"/>
-      <c r="AD5" s="30"/>
-      <c r="AE5" s="30"/>
-      <c r="AF5" s="30"/>
-      <c r="AG5" s="31"/>
-      <c r="AH5" s="31"/>
-      <c r="AI5" s="31"/>
-      <c r="AJ5" s="31"/>
-      <c r="AK5" s="31"/>
-      <c r="AL5" s="31"/>
-      <c r="AM5" s="31"/>
-      <c r="AN5" s="31"/>
-      <c r="AO5" s="31"/>
-      <c r="AP5" s="31"/>
-      <c r="AQ5" s="31"/>
-      <c r="AR5" s="31"/>
-      <c r="AS5" s="31"/>
-      <c r="AT5" s="31"/>
-      <c r="AU5" s="31"/>
-      <c r="AV5" s="31"/>
-      <c r="AW5" s="31"/>
-      <c r="AX5" s="31"/>
-      <c r="AY5" s="31"/>
-      <c r="AZ5" s="31"/>
+      <c r="N5" s="30">
+        <v>44577</v>
+      </c>
+      <c r="O5" s="30">
+        <v>44578</v>
+      </c>
+      <c r="P5" s="30">
+        <v>44579</v>
+      </c>
+      <c r="Q5" s="30">
+        <v>44580</v>
+      </c>
+      <c r="R5" s="30">
+        <v>44581</v>
+      </c>
+      <c r="S5" s="30">
+        <v>44582</v>
+      </c>
+      <c r="T5" s="31">
+        <v>44583</v>
+      </c>
+      <c r="U5" s="30">
+        <v>44584</v>
+      </c>
+      <c r="V5" s="30">
+        <v>44585</v>
+      </c>
+      <c r="W5" s="30">
+        <v>44586</v>
+      </c>
+      <c r="X5" s="30">
+        <v>44587</v>
+      </c>
+      <c r="Y5" s="30">
+        <v>44588</v>
+      </c>
+      <c r="Z5" s="30">
+        <v>44589</v>
+      </c>
+      <c r="AA5" s="31">
+        <v>44590</v>
+      </c>
+      <c r="AB5" s="30">
+        <v>44591</v>
+      </c>
+      <c r="AC5" s="30">
+        <v>44592</v>
+      </c>
+      <c r="AD5" s="30">
+        <v>44593</v>
+      </c>
+      <c r="AE5" s="30">
+        <v>44594</v>
+      </c>
+      <c r="AF5" s="30">
+        <v>44595</v>
+      </c>
+      <c r="AG5" s="30">
+        <v>44596</v>
+      </c>
+      <c r="AH5" s="31">
+        <v>44597</v>
+      </c>
+      <c r="AI5" s="30">
+        <v>44598</v>
+      </c>
+      <c r="AJ5" s="30">
+        <v>44599</v>
+      </c>
+      <c r="AK5" s="30">
+        <v>44600</v>
+      </c>
+      <c r="AL5" s="30">
+        <v>44601</v>
+      </c>
+      <c r="AM5" s="30">
+        <v>44602</v>
+      </c>
+      <c r="AN5" s="30">
+        <v>44603</v>
+      </c>
+      <c r="AO5" s="31">
+        <v>44604</v>
+      </c>
+      <c r="AP5" s="30">
+        <v>44605</v>
+      </c>
+      <c r="AQ5" s="30">
+        <v>44606</v>
+      </c>
+      <c r="AR5" s="30">
+        <v>44607</v>
+      </c>
+      <c r="AS5" s="30">
+        <v>44608</v>
+      </c>
+      <c r="AT5" s="30">
+        <v>44609</v>
+      </c>
+      <c r="AU5" s="30">
+        <v>44610</v>
+      </c>
+      <c r="AV5" s="31">
+        <v>44611</v>
+      </c>
+      <c r="AW5" s="30">
+        <v>44612</v>
+      </c>
+      <c r="AX5" s="30">
+        <v>44613</v>
+      </c>
+      <c r="AY5" s="30">
+        <v>44614</v>
+      </c>
+      <c r="AZ5" s="30">
+        <v>44615</v>
+      </c>
       <c r="BA5" s="31"/>
       <c r="BB5" s="31"/>
       <c r="BC5" s="31"/>
@@ -5876,11 +6117,11 @@
       <c r="B6" s="29"/>
       <c r="C6" s="29"/>
       <c r="D6" s="29"/>
-      <c r="E6" s="108" t="s">
+      <c r="E6" s="110" t="s">
         <v>22</v>
       </c>
-      <c r="F6" s="109"/>
-      <c r="G6" s="109"/>
+      <c r="F6" s="111"/>
+      <c r="G6" s="111"/>
       <c r="H6" s="33">
         <v>1</v>
       </c>
@@ -5955,11 +6196,11 @@
       </c>
     </row>
     <row r="7" spans="1:64" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E7" s="110" t="s">
+      <c r="E7" s="112" t="s">
         <v>23</v>
       </c>
-      <c r="F7" s="109"/>
-      <c r="G7" s="111"/>
+      <c r="F7" s="111"/>
+      <c r="G7" s="113"/>
       <c r="H7" s="37">
         <v>1</v>
       </c>
@@ -6034,24 +6275,24 @@
       </c>
     </row>
     <row r="8" spans="1:64" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="117" t="s">
+      <c r="A8" s="97" t="s">
         <v>24</v>
       </c>
-      <c r="B8" s="118"/>
-      <c r="C8" s="118"/>
-      <c r="D8" s="118"/>
-      <c r="E8" s="118"/>
-      <c r="F8" s="118"/>
-      <c r="G8" s="119"/>
-      <c r="H8" s="112" t="s">
+      <c r="B8" s="98"/>
+      <c r="C8" s="98"/>
+      <c r="D8" s="98"/>
+      <c r="E8" s="98"/>
+      <c r="F8" s="98"/>
+      <c r="G8" s="99"/>
+      <c r="H8" s="91" t="s">
         <v>25</v>
       </c>
-      <c r="I8" s="113"/>
-      <c r="J8" s="113"/>
-      <c r="K8" s="113"/>
-      <c r="L8" s="113"/>
-      <c r="M8" s="113"/>
-      <c r="N8" s="114"/>
+      <c r="I8" s="92"/>
+      <c r="J8" s="92"/>
+      <c r="K8" s="92"/>
+      <c r="L8" s="92"/>
+      <c r="M8" s="92"/>
+      <c r="N8" s="93"/>
       <c r="O8" s="39"/>
       <c r="P8" s="39"/>
       <c r="Q8" s="39"/>
@@ -6066,12 +6307,12 @@
       <c r="Z8" s="39"/>
       <c r="AA8" s="39"/>
       <c r="AB8" s="39"/>
-      <c r="AC8" s="112"/>
-      <c r="AD8" s="113"/>
-      <c r="AE8" s="113"/>
-      <c r="AF8" s="113"/>
-      <c r="AG8" s="113"/>
-      <c r="AH8" s="114"/>
+      <c r="AC8" s="91"/>
+      <c r="AD8" s="92"/>
+      <c r="AE8" s="92"/>
+      <c r="AF8" s="92"/>
+      <c r="AG8" s="92"/>
+      <c r="AH8" s="93"/>
       <c r="AI8" s="39"/>
       <c r="AJ8" s="39"/>
       <c r="AK8" s="39"/>
@@ -6116,11 +6357,11 @@
       <c r="A9" s="42" t="s">
         <v>26</v>
       </c>
-      <c r="B9" s="120" t="s">
+      <c r="B9" s="100" t="s">
         <v>27</v>
       </c>
-      <c r="C9" s="113"/>
-      <c r="D9" s="114"/>
+      <c r="C9" s="92"/>
+      <c r="D9" s="93"/>
       <c r="E9" s="42" t="s">
         <v>28</v>
       </c>
@@ -6130,13 +6371,13 @@
       <c r="G9" s="42" t="s">
         <v>30</v>
       </c>
-      <c r="H9" s="115"/>
-      <c r="I9" s="102"/>
-      <c r="J9" s="102"/>
-      <c r="K9" s="102"/>
-      <c r="L9" s="102"/>
-      <c r="M9" s="102"/>
-      <c r="N9" s="116"/>
+      <c r="H9" s="94"/>
+      <c r="I9" s="95"/>
+      <c r="J9" s="95"/>
+      <c r="K9" s="95"/>
+      <c r="L9" s="95"/>
+      <c r="M9" s="95"/>
+      <c r="N9" s="96"/>
       <c r="O9" s="44"/>
       <c r="P9" s="44"/>
       <c r="Q9" s="44"/>
@@ -6151,12 +6392,12 @@
       <c r="Z9" s="44"/>
       <c r="AA9" s="44"/>
       <c r="AB9" s="44"/>
-      <c r="AC9" s="115"/>
-      <c r="AD9" s="102"/>
-      <c r="AE9" s="102"/>
-      <c r="AF9" s="102"/>
-      <c r="AG9" s="102"/>
-      <c r="AH9" s="116"/>
+      <c r="AC9" s="94"/>
+      <c r="AD9" s="95"/>
+      <c r="AE9" s="95"/>
+      <c r="AF9" s="95"/>
+      <c r="AG9" s="95"/>
+      <c r="AH9" s="96"/>
       <c r="AI9" s="44"/>
       <c r="AJ9" s="44"/>
       <c r="AK9" s="44"/>
@@ -6199,11 +6440,11 @@
     </row>
     <row r="10" spans="1:64" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="45"/>
-      <c r="B10" s="121" t="s">
+      <c r="B10" s="101" t="s">
         <v>31</v>
       </c>
-      <c r="C10" s="99"/>
-      <c r="D10" s="100"/>
+      <c r="C10" s="102"/>
+      <c r="D10" s="103"/>
       <c r="E10" s="46" t="s">
         <v>18</v>
       </c>
@@ -6447,11 +6688,11 @@
       <c r="A13" s="45" t="s">
         <v>34</v>
       </c>
-      <c r="B13" s="106" t="s">
+      <c r="B13" s="104" t="s">
         <v>46</v>
       </c>
-      <c r="C13" s="99"/>
-      <c r="D13" s="100"/>
+      <c r="C13" s="102"/>
+      <c r="D13" s="103"/>
       <c r="E13" s="56" t="s">
         <v>14</v>
       </c>
@@ -6523,11 +6764,11 @@
     </row>
     <row r="14" spans="1:64" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="45"/>
-      <c r="B14" s="104" t="s">
+      <c r="B14" s="105" t="s">
         <v>35</v>
       </c>
-      <c r="C14" s="99"/>
-      <c r="D14" s="100"/>
+      <c r="C14" s="102"/>
+      <c r="D14" s="103"/>
       <c r="E14" s="56" t="s">
         <v>12</v>
       </c>
@@ -6686,11 +6927,11 @@
     </row>
     <row r="16" spans="1:64" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="45"/>
-      <c r="B16" s="106" t="s">
+      <c r="B16" s="104" t="s">
         <v>48</v>
       </c>
-      <c r="C16" s="99"/>
-      <c r="D16" s="100"/>
+      <c r="C16" s="102"/>
+      <c r="D16" s="103"/>
       <c r="E16" s="46" t="s">
         <v>18</v>
       </c>
@@ -6771,11 +7012,11 @@
     </row>
     <row r="17" spans="1:64" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="45"/>
-      <c r="B17" s="106" t="s">
+      <c r="B17" s="104" t="s">
         <v>49</v>
       </c>
-      <c r="C17" s="99"/>
-      <c r="D17" s="100"/>
+      <c r="C17" s="102"/>
+      <c r="D17" s="103"/>
       <c r="E17" s="46" t="s">
         <v>18</v>
       </c>
@@ -6855,11 +7096,11 @@
       </c>
     </row>
     <row r="18" spans="1:64" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="92" t="s">
+      <c r="B18" s="107" t="s">
         <v>50</v>
       </c>
-      <c r="C18" s="93"/>
-      <c r="D18" s="94"/>
+      <c r="C18" s="108"/>
+      <c r="D18" s="109"/>
       <c r="E18" s="56" t="s">
         <v>12</v>
       </c>
@@ -6942,11 +7183,11 @@
       <c r="A19" s="45" t="s">
         <v>37</v>
       </c>
-      <c r="B19" s="107" t="s">
+      <c r="B19" s="106" t="s">
         <v>47</v>
       </c>
-      <c r="C19" s="99"/>
-      <c r="D19" s="100"/>
+      <c r="C19" s="102"/>
+      <c r="D19" s="103"/>
       <c r="E19" s="56" t="s">
         <v>14</v>
       </c>
@@ -7027,11 +7268,11 @@
     </row>
     <row r="20" spans="1:64" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="45"/>
-      <c r="B20" s="106" t="s">
+      <c r="B20" s="104" t="s">
         <v>48</v>
       </c>
-      <c r="C20" s="99"/>
-      <c r="D20" s="100"/>
+      <c r="C20" s="102"/>
+      <c r="D20" s="103"/>
       <c r="E20" s="56" t="s">
         <v>12</v>
       </c>
@@ -7103,11 +7344,11 @@
     </row>
     <row r="21" spans="1:64" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="45"/>
-      <c r="B21" s="106" t="s">
+      <c r="B21" s="104" t="s">
         <v>49</v>
       </c>
-      <c r="C21" s="99"/>
-      <c r="D21" s="100"/>
+      <c r="C21" s="102"/>
+      <c r="D21" s="103"/>
       <c r="E21" s="56" t="s">
         <v>12</v>
       </c>
@@ -7179,11 +7420,11 @@
     </row>
     <row r="22" spans="1:64" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="45"/>
-      <c r="B22" s="92" t="s">
+      <c r="B22" s="107" t="s">
         <v>50</v>
       </c>
-      <c r="C22" s="93"/>
-      <c r="D22" s="94"/>
+      <c r="C22" s="108"/>
+      <c r="D22" s="109"/>
       <c r="E22" s="45" t="s">
         <v>14</v>
       </c>
@@ -7257,11 +7498,11 @@
     </row>
     <row r="23" spans="1:64" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="45"/>
-      <c r="B23" s="92" t="s">
+      <c r="B23" s="107" t="s">
         <v>50</v>
       </c>
-      <c r="C23" s="93"/>
-      <c r="D23" s="94"/>
+      <c r="C23" s="108"/>
+      <c r="D23" s="109"/>
       <c r="E23" s="56" t="s">
         <v>12</v>
       </c>
@@ -7333,11 +7574,11 @@
     </row>
     <row r="24" spans="1:64" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="45"/>
-      <c r="B24" s="104" t="s">
+      <c r="B24" s="105" t="s">
         <v>35</v>
       </c>
-      <c r="C24" s="99"/>
-      <c r="D24" s="100"/>
+      <c r="C24" s="102"/>
+      <c r="D24" s="103"/>
       <c r="E24" s="45" t="s">
         <v>12</v>
       </c>
@@ -7409,11 +7650,11 @@
     </row>
     <row r="25" spans="1:64" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="45"/>
-      <c r="B25" s="95" t="s">
+      <c r="B25" s="119" t="s">
         <v>51</v>
       </c>
-      <c r="C25" s="96"/>
-      <c r="D25" s="97"/>
+      <c r="C25" s="120"/>
+      <c r="D25" s="121"/>
       <c r="E25" s="56" t="s">
         <v>18</v>
       </c>
@@ -7485,9 +7726,9 @@
     </row>
     <row r="26" spans="1:64" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="45"/>
-      <c r="B26" s="104"/>
-      <c r="C26" s="99"/>
-      <c r="D26" s="100"/>
+      <c r="B26" s="105"/>
+      <c r="C26" s="102"/>
+      <c r="D26" s="103"/>
       <c r="E26" s="56"/>
       <c r="F26" s="47"/>
       <c r="G26" s="47"/>
@@ -7553,9 +7794,9 @@
     </row>
     <row r="27" spans="1:64" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="45"/>
-      <c r="B27" s="104"/>
-      <c r="C27" s="99"/>
-      <c r="D27" s="100"/>
+      <c r="B27" s="105"/>
+      <c r="C27" s="102"/>
+      <c r="D27" s="103"/>
       <c r="E27" s="56"/>
       <c r="F27" s="47"/>
       <c r="G27" s="47"/>
@@ -7619,11 +7860,11 @@
     </row>
     <row r="28" spans="1:64" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="45"/>
-      <c r="B28" s="104" t="s">
+      <c r="B28" s="105" t="s">
         <v>38</v>
       </c>
-      <c r="C28" s="99"/>
-      <c r="D28" s="100"/>
+      <c r="C28" s="102"/>
+      <c r="D28" s="103"/>
       <c r="E28" s="45" t="s">
         <v>18</v>
       </c>
@@ -7699,11 +7940,11 @@
     </row>
     <row r="29" spans="1:64" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="45"/>
-      <c r="B29" s="104" t="s">
+      <c r="B29" s="105" t="s">
         <v>35</v>
       </c>
-      <c r="C29" s="99"/>
-      <c r="D29" s="100"/>
+      <c r="C29" s="102"/>
+      <c r="D29" s="103"/>
       <c r="E29" s="45" t="s">
         <v>12</v>
       </c>
@@ -7921,9 +8162,9 @@
     </row>
     <row r="32" spans="1:64" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="45"/>
-      <c r="B32" s="104"/>
-      <c r="C32" s="99"/>
-      <c r="D32" s="100"/>
+      <c r="B32" s="105"/>
+      <c r="C32" s="102"/>
+      <c r="D32" s="103"/>
       <c r="E32" s="46"/>
       <c r="F32" s="47"/>
       <c r="G32" s="47"/>
@@ -7987,9 +8228,9 @@
     </row>
     <row r="33" spans="1:64" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="45"/>
-      <c r="B33" s="104"/>
-      <c r="C33" s="99"/>
-      <c r="D33" s="100"/>
+      <c r="B33" s="105"/>
+      <c r="C33" s="102"/>
+      <c r="D33" s="103"/>
       <c r="E33" s="46"/>
       <c r="F33" s="47"/>
       <c r="G33" s="47"/>
@@ -8053,9 +8294,9 @@
     </row>
     <row r="34" spans="1:64" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="45"/>
-      <c r="B34" s="104"/>
-      <c r="C34" s="99"/>
-      <c r="D34" s="100"/>
+      <c r="B34" s="105"/>
+      <c r="C34" s="102"/>
+      <c r="D34" s="103"/>
       <c r="E34" s="56"/>
       <c r="F34" s="47"/>
       <c r="G34" s="47"/>
@@ -8185,9 +8426,9 @@
     </row>
     <row r="36" spans="1:64" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="45"/>
-      <c r="B36" s="105"/>
-      <c r="C36" s="99"/>
-      <c r="D36" s="100"/>
+      <c r="B36" s="114"/>
+      <c r="C36" s="102"/>
+      <c r="D36" s="103"/>
       <c r="E36" s="56"/>
       <c r="F36" s="47"/>
       <c r="G36" s="47"/>
@@ -8383,9 +8624,9 @@
     </row>
     <row r="39" spans="1:64" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="45"/>
-      <c r="B39" s="104"/>
-      <c r="C39" s="99"/>
-      <c r="D39" s="100"/>
+      <c r="B39" s="105"/>
+      <c r="C39" s="102"/>
+      <c r="D39" s="103"/>
       <c r="E39" s="56"/>
       <c r="F39" s="47"/>
       <c r="G39" s="47"/>
@@ -8449,9 +8690,9 @@
     </row>
     <row r="40" spans="1:64" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="45"/>
-      <c r="B40" s="104"/>
-      <c r="C40" s="99"/>
-      <c r="D40" s="100"/>
+      <c r="B40" s="105"/>
+      <c r="C40" s="102"/>
+      <c r="D40" s="103"/>
       <c r="E40" s="46"/>
       <c r="F40" s="47"/>
       <c r="G40" s="47"/>
@@ -8515,9 +8756,9 @@
     </row>
     <row r="41" spans="1:64" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="45"/>
-      <c r="B41" s="104"/>
-      <c r="C41" s="99"/>
-      <c r="D41" s="100"/>
+      <c r="B41" s="105"/>
+      <c r="C41" s="102"/>
+      <c r="D41" s="103"/>
       <c r="E41" s="46"/>
       <c r="F41" s="47"/>
       <c r="G41" s="47"/>
@@ -8581,9 +8822,9 @@
     </row>
     <row r="42" spans="1:64" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="45"/>
-      <c r="B42" s="105"/>
-      <c r="C42" s="99"/>
-      <c r="D42" s="100"/>
+      <c r="B42" s="114"/>
+      <c r="C42" s="102"/>
+      <c r="D42" s="103"/>
       <c r="E42" s="56"/>
       <c r="F42" s="47"/>
       <c r="G42" s="47"/>
@@ -8647,9 +8888,9 @@
     </row>
     <row r="43" spans="1:64" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="45"/>
-      <c r="B43" s="105"/>
-      <c r="C43" s="99"/>
-      <c r="D43" s="100"/>
+      <c r="B43" s="114"/>
+      <c r="C43" s="102"/>
+      <c r="D43" s="103"/>
       <c r="E43" s="56"/>
       <c r="F43" s="47"/>
       <c r="G43" s="47"/>
@@ -8713,9 +8954,9 @@
     </row>
     <row r="44" spans="1:64" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="45"/>
-      <c r="B44" s="104"/>
-      <c r="C44" s="99"/>
-      <c r="D44" s="100"/>
+      <c r="B44" s="105"/>
+      <c r="C44" s="102"/>
+      <c r="D44" s="103"/>
       <c r="E44" s="56"/>
       <c r="F44" s="47"/>
       <c r="G44" s="47"/>
@@ -8779,9 +9020,9 @@
     </row>
     <row r="45" spans="1:64" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="45"/>
-      <c r="B45" s="104"/>
-      <c r="C45" s="99"/>
-      <c r="D45" s="100"/>
+      <c r="B45" s="105"/>
+      <c r="C45" s="102"/>
+      <c r="D45" s="103"/>
       <c r="E45" s="56"/>
       <c r="F45" s="47"/>
       <c r="G45" s="47"/>
@@ -8845,9 +9086,9 @@
     </row>
     <row r="46" spans="1:64" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="45"/>
-      <c r="B46" s="105"/>
-      <c r="C46" s="99"/>
-      <c r="D46" s="100"/>
+      <c r="B46" s="114"/>
+      <c r="C46" s="102"/>
+      <c r="D46" s="103"/>
       <c r="E46" s="46"/>
       <c r="F46" s="47"/>
       <c r="G46" s="47"/>
@@ -8911,9 +9152,9 @@
     </row>
     <row r="47" spans="1:64" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="45"/>
-      <c r="B47" s="105"/>
-      <c r="C47" s="99"/>
-      <c r="D47" s="100"/>
+      <c r="B47" s="114"/>
+      <c r="C47" s="102"/>
+      <c r="D47" s="103"/>
       <c r="E47" s="56"/>
       <c r="F47" s="47"/>
       <c r="G47" s="47"/>
@@ -8977,9 +9218,9 @@
     </row>
     <row r="48" spans="1:64" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="45"/>
-      <c r="B48" s="98"/>
-      <c r="C48" s="99"/>
-      <c r="D48" s="100"/>
+      <c r="B48" s="115"/>
+      <c r="C48" s="102"/>
+      <c r="D48" s="103"/>
       <c r="E48" s="56"/>
       <c r="F48" s="47"/>
       <c r="G48" s="47"/>
@@ -9043,9 +9284,9 @@
     </row>
     <row r="49" spans="1:64" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="45"/>
-      <c r="B49" s="98"/>
-      <c r="C49" s="99"/>
-      <c r="D49" s="100"/>
+      <c r="B49" s="115"/>
+      <c r="C49" s="102"/>
+      <c r="D49" s="103"/>
       <c r="E49" s="46"/>
       <c r="F49" s="47"/>
       <c r="G49" s="47"/>
@@ -9109,9 +9350,9 @@
     </row>
     <row r="50" spans="1:64" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="45"/>
-      <c r="B50" s="98"/>
-      <c r="C50" s="99"/>
-      <c r="D50" s="100"/>
+      <c r="B50" s="115"/>
+      <c r="C50" s="102"/>
+      <c r="D50" s="103"/>
       <c r="E50" s="46"/>
       <c r="F50" s="47"/>
       <c r="G50" s="47"/>
@@ -9175,9 +9416,9 @@
     </row>
     <row r="51" spans="1:64" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="45"/>
-      <c r="B51" s="98"/>
-      <c r="C51" s="99"/>
-      <c r="D51" s="100"/>
+      <c r="B51" s="115"/>
+      <c r="C51" s="102"/>
+      <c r="D51" s="103"/>
       <c r="E51" s="56"/>
       <c r="F51" s="47"/>
       <c r="G51" s="47"/>
@@ -9241,9 +9482,9 @@
     </row>
     <row r="52" spans="1:64" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="62"/>
-      <c r="B52" s="101"/>
-      <c r="C52" s="102"/>
-      <c r="D52" s="103"/>
+      <c r="B52" s="116"/>
+      <c r="C52" s="95"/>
+      <c r="D52" s="117"/>
       <c r="E52" s="62"/>
       <c r="F52" s="62"/>
       <c r="G52" s="63"/>
@@ -9307,7 +9548,7 @@
     </row>
     <row r="53" spans="1:64" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" s="64"/>
-      <c r="B53" s="91"/>
+      <c r="B53" s="118"/>
       <c r="C53" s="80"/>
       <c r="D53" s="81"/>
       <c r="E53" s="64"/>
@@ -9373,7 +9614,7 @@
     </row>
     <row r="54" spans="1:64" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" s="64"/>
-      <c r="B54" s="91"/>
+      <c r="B54" s="118"/>
       <c r="C54" s="80"/>
       <c r="D54" s="81"/>
       <c r="E54" s="64"/>
@@ -9439,7 +9680,7 @@
     </row>
     <row r="55" spans="1:64" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" s="64"/>
-      <c r="B55" s="91"/>
+      <c r="B55" s="118"/>
       <c r="C55" s="80"/>
       <c r="D55" s="81"/>
       <c r="E55" s="64"/>
@@ -9505,7 +9746,7 @@
     </row>
     <row r="56" spans="1:64" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" s="64"/>
-      <c r="B56" s="91"/>
+      <c r="B56" s="118"/>
       <c r="C56" s="80"/>
       <c r="D56" s="81"/>
       <c r="E56" s="64"/>
@@ -9571,7 +9812,7 @@
     </row>
     <row r="57" spans="1:64" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A57" s="64"/>
-      <c r="B57" s="91"/>
+      <c r="B57" s="118"/>
       <c r="C57" s="80"/>
       <c r="D57" s="81"/>
       <c r="E57" s="64"/>
@@ -9637,7 +9878,7 @@
     </row>
     <row r="58" spans="1:64" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A58" s="64"/>
-      <c r="B58" s="91"/>
+      <c r="B58" s="118"/>
       <c r="C58" s="80"/>
       <c r="D58" s="81"/>
       <c r="E58" s="64"/>
@@ -9684,7 +9925,7 @@
     </row>
     <row r="59" spans="1:64" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A59" s="64"/>
-      <c r="B59" s="91"/>
+      <c r="B59" s="118"/>
       <c r="C59" s="80"/>
       <c r="D59" s="81"/>
       <c r="E59" s="64"/>
@@ -9731,7 +9972,7 @@
     </row>
     <row r="60" spans="1:64" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A60" s="64"/>
-      <c r="B60" s="91"/>
+      <c r="B60" s="118"/>
       <c r="C60" s="80"/>
       <c r="D60" s="81"/>
       <c r="E60" s="64"/>
@@ -9778,7 +10019,7 @@
     </row>
     <row r="61" spans="1:64" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A61" s="64"/>
-      <c r="B61" s="91"/>
+      <c r="B61" s="118"/>
       <c r="C61" s="80"/>
       <c r="D61" s="81"/>
       <c r="E61" s="64"/>
@@ -9825,7 +10066,7 @@
     </row>
     <row r="62" spans="1:64" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A62" s="64"/>
-      <c r="B62" s="91"/>
+      <c r="B62" s="118"/>
       <c r="C62" s="80"/>
       <c r="D62" s="81"/>
       <c r="E62" s="64"/>
@@ -9872,7 +10113,7 @@
     </row>
     <row r="63" spans="1:64" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A63" s="64"/>
-      <c r="B63" s="91"/>
+      <c r="B63" s="118"/>
       <c r="C63" s="80"/>
       <c r="D63" s="81"/>
       <c r="E63" s="64"/>
@@ -9919,7 +10160,7 @@
     </row>
     <row r="64" spans="1:64" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A64" s="64"/>
-      <c r="B64" s="91"/>
+      <c r="B64" s="118"/>
       <c r="C64" s="80"/>
       <c r="D64" s="81"/>
       <c r="E64" s="64"/>
@@ -9966,7 +10207,7 @@
     </row>
     <row r="65" spans="1:64" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A65" s="64"/>
-      <c r="B65" s="91"/>
+      <c r="B65" s="118"/>
       <c r="C65" s="80"/>
       <c r="D65" s="81"/>
       <c r="E65" s="64"/>
@@ -10013,7 +10254,7 @@
     </row>
     <row r="66" spans="1:64" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A66" s="64"/>
-      <c r="B66" s="91"/>
+      <c r="B66" s="118"/>
       <c r="C66" s="80"/>
       <c r="D66" s="81"/>
       <c r="E66" s="64"/>
@@ -10060,7 +10301,7 @@
     </row>
     <row r="67" spans="1:64" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A67" s="64"/>
-      <c r="B67" s="91"/>
+      <c r="B67" s="118"/>
       <c r="C67" s="80"/>
       <c r="D67" s="81"/>
       <c r="E67" s="64"/>
@@ -10107,7 +10348,7 @@
     </row>
     <row r="68" spans="1:64" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A68" s="64"/>
-      <c r="B68" s="91"/>
+      <c r="B68" s="118"/>
       <c r="C68" s="80"/>
       <c r="D68" s="81"/>
       <c r="E68" s="64"/>
@@ -10154,7 +10395,7 @@
     </row>
     <row r="69" spans="1:64" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A69" s="64"/>
-      <c r="B69" s="91"/>
+      <c r="B69" s="118"/>
       <c r="C69" s="80"/>
       <c r="D69" s="81"/>
       <c r="E69" s="64"/>
@@ -10201,7 +10442,7 @@
     </row>
     <row r="70" spans="1:64" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A70" s="64"/>
-      <c r="B70" s="91"/>
+      <c r="B70" s="118"/>
       <c r="C70" s="80"/>
       <c r="D70" s="81"/>
       <c r="E70" s="64"/>
@@ -10248,7 +10489,7 @@
     </row>
     <row r="71" spans="1:64" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A71" s="64"/>
-      <c r="B71" s="91"/>
+      <c r="B71" s="118"/>
       <c r="C71" s="80"/>
       <c r="D71" s="81"/>
       <c r="E71" s="64"/>
@@ -10295,7 +10536,7 @@
     </row>
     <row r="72" spans="1:64" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A72" s="64"/>
-      <c r="B72" s="91"/>
+      <c r="B72" s="118"/>
       <c r="C72" s="80"/>
       <c r="D72" s="81"/>
       <c r="E72" s="64"/>
@@ -10342,7 +10583,7 @@
     </row>
     <row r="73" spans="1:64" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A73" s="64"/>
-      <c r="B73" s="91"/>
+      <c r="B73" s="118"/>
       <c r="C73" s="80"/>
       <c r="D73" s="81"/>
       <c r="E73" s="64"/>
@@ -10389,7 +10630,7 @@
     </row>
     <row r="74" spans="1:64" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A74" s="64"/>
-      <c r="B74" s="91"/>
+      <c r="B74" s="118"/>
       <c r="C74" s="80"/>
       <c r="D74" s="81"/>
       <c r="E74" s="64"/>
@@ -10436,7 +10677,7 @@
     </row>
     <row r="75" spans="1:64" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A75" s="64"/>
-      <c r="B75" s="91"/>
+      <c r="B75" s="118"/>
       <c r="C75" s="80"/>
       <c r="D75" s="81"/>
       <c r="E75" s="64"/>
@@ -10483,7 +10724,7 @@
     </row>
     <row r="76" spans="1:64" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A76" s="64"/>
-      <c r="B76" s="91"/>
+      <c r="B76" s="118"/>
       <c r="C76" s="80"/>
       <c r="D76" s="81"/>
       <c r="E76" s="64"/>
@@ -10530,7 +10771,7 @@
     </row>
     <row r="77" spans="1:64" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A77" s="64"/>
-      <c r="B77" s="91"/>
+      <c r="B77" s="118"/>
       <c r="C77" s="80"/>
       <c r="D77" s="81"/>
       <c r="E77" s="64"/>
@@ -10577,7 +10818,7 @@
     </row>
     <row r="78" spans="1:64" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A78" s="64"/>
-      <c r="B78" s="91"/>
+      <c r="B78" s="118"/>
       <c r="C78" s="80"/>
       <c r="D78" s="81"/>
       <c r="E78" s="64"/>
@@ -10624,7 +10865,7 @@
     </row>
     <row r="79" spans="1:64" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A79" s="64"/>
-      <c r="B79" s="91"/>
+      <c r="B79" s="118"/>
       <c r="C79" s="80"/>
       <c r="D79" s="81"/>
       <c r="E79" s="64"/>
@@ -10671,7 +10912,7 @@
     </row>
     <row r="80" spans="1:64" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A80" s="64"/>
-      <c r="B80" s="91"/>
+      <c r="B80" s="118"/>
       <c r="C80" s="80"/>
       <c r="D80" s="81"/>
       <c r="E80" s="64"/>
@@ -10718,7 +10959,7 @@
     </row>
     <row r="81" spans="1:64" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A81" s="64"/>
-      <c r="B81" s="91"/>
+      <c r="B81" s="118"/>
       <c r="C81" s="80"/>
       <c r="D81" s="81"/>
       <c r="E81" s="64"/>
@@ -10765,7 +11006,7 @@
     </row>
     <row r="82" spans="1:64" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A82" s="64"/>
-      <c r="B82" s="91"/>
+      <c r="B82" s="118"/>
       <c r="C82" s="80"/>
       <c r="D82" s="81"/>
       <c r="E82" s="64"/>
@@ -10812,7 +11053,7 @@
     </row>
     <row r="83" spans="1:64" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A83" s="64"/>
-      <c r="B83" s="91"/>
+      <c r="B83" s="118"/>
       <c r="C83" s="80"/>
       <c r="D83" s="81"/>
       <c r="E83" s="64"/>
@@ -10859,7 +11100,7 @@
     </row>
     <row r="84" spans="1:64" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A84" s="64"/>
-      <c r="B84" s="91"/>
+      <c r="B84" s="118"/>
       <c r="C84" s="80"/>
       <c r="D84" s="81"/>
       <c r="E84" s="64"/>
@@ -10906,7 +11147,7 @@
     </row>
     <row r="85" spans="1:64" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A85" s="64"/>
-      <c r="B85" s="91"/>
+      <c r="B85" s="118"/>
       <c r="C85" s="80"/>
       <c r="D85" s="81"/>
       <c r="E85" s="64"/>
@@ -10953,7 +11194,7 @@
     </row>
     <row r="86" spans="1:64" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A86" s="64"/>
-      <c r="B86" s="91"/>
+      <c r="B86" s="118"/>
       <c r="C86" s="80"/>
       <c r="D86" s="81"/>
       <c r="E86" s="64"/>
@@ -11000,7 +11241,7 @@
     </row>
     <row r="87" spans="1:64" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A87" s="64"/>
-      <c r="B87" s="91"/>
+      <c r="B87" s="118"/>
       <c r="C87" s="80"/>
       <c r="D87" s="81"/>
       <c r="E87" s="64"/>
@@ -11047,7 +11288,7 @@
     </row>
     <row r="88" spans="1:64" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A88" s="64"/>
-      <c r="B88" s="91"/>
+      <c r="B88" s="118"/>
       <c r="C88" s="80"/>
       <c r="D88" s="81"/>
       <c r="E88" s="64"/>
@@ -11094,7 +11335,7 @@
     </row>
     <row r="89" spans="1:64" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A89" s="64"/>
-      <c r="B89" s="91"/>
+      <c r="B89" s="118"/>
       <c r="C89" s="80"/>
       <c r="D89" s="81"/>
       <c r="E89" s="64"/>
@@ -11141,7 +11382,7 @@
     </row>
     <row r="90" spans="1:64" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A90" s="64"/>
-      <c r="B90" s="91"/>
+      <c r="B90" s="118"/>
       <c r="C90" s="80"/>
       <c r="D90" s="81"/>
       <c r="E90" s="64"/>
@@ -11188,7 +11429,7 @@
     </row>
     <row r="91" spans="1:64" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A91" s="64"/>
-      <c r="B91" s="91"/>
+      <c r="B91" s="118"/>
       <c r="C91" s="80"/>
       <c r="D91" s="81"/>
       <c r="E91" s="64"/>
@@ -11235,7 +11476,7 @@
     </row>
     <row r="92" spans="1:64" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A92" s="64"/>
-      <c r="B92" s="91"/>
+      <c r="B92" s="118"/>
       <c r="C92" s="80"/>
       <c r="D92" s="81"/>
       <c r="E92" s="64"/>
@@ -11282,7 +11523,7 @@
     </row>
     <row r="93" spans="1:64" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A93" s="64"/>
-      <c r="B93" s="91"/>
+      <c r="B93" s="118"/>
       <c r="C93" s="80"/>
       <c r="D93" s="81"/>
       <c r="E93" s="64"/>
@@ -11329,7 +11570,7 @@
     </row>
     <row r="94" spans="1:64" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A94" s="64"/>
-      <c r="B94" s="91"/>
+      <c r="B94" s="118"/>
       <c r="C94" s="80"/>
       <c r="D94" s="81"/>
       <c r="E94" s="64"/>
@@ -11376,7 +11617,7 @@
     </row>
     <row r="95" spans="1:64" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A95" s="64"/>
-      <c r="B95" s="91"/>
+      <c r="B95" s="118"/>
       <c r="C95" s="80"/>
       <c r="D95" s="81"/>
       <c r="E95" s="64"/>
@@ -11423,7 +11664,7 @@
     </row>
     <row r="96" spans="1:64" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A96" s="64"/>
-      <c r="B96" s="91"/>
+      <c r="B96" s="118"/>
       <c r="C96" s="80"/>
       <c r="D96" s="81"/>
       <c r="E96" s="64"/>
@@ -11470,7 +11711,7 @@
     </row>
     <row r="97" spans="1:64" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A97" s="64"/>
-      <c r="B97" s="91"/>
+      <c r="B97" s="118"/>
       <c r="C97" s="80"/>
       <c r="D97" s="81"/>
       <c r="E97" s="64"/>
@@ -11517,7 +11758,7 @@
     </row>
     <row r="98" spans="1:64" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A98" s="64"/>
-      <c r="B98" s="91"/>
+      <c r="B98" s="118"/>
       <c r="C98" s="80"/>
       <c r="D98" s="81"/>
       <c r="E98" s="64"/>
@@ -11564,7 +11805,7 @@
     </row>
     <row r="99" spans="1:64" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A99" s="64"/>
-      <c r="B99" s="91"/>
+      <c r="B99" s="118"/>
       <c r="C99" s="80"/>
       <c r="D99" s="81"/>
       <c r="E99" s="64"/>
@@ -11611,7 +11852,7 @@
     </row>
     <row r="100" spans="1:64" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A100" s="64"/>
-      <c r="B100" s="91"/>
+      <c r="B100" s="118"/>
       <c r="C100" s="80"/>
       <c r="D100" s="81"/>
       <c r="E100" s="64"/>
@@ -11658,7 +11899,7 @@
     </row>
     <row r="101" spans="1:64" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A101" s="64"/>
-      <c r="B101" s="91"/>
+      <c r="B101" s="118"/>
       <c r="C101" s="80"/>
       <c r="D101" s="81"/>
       <c r="E101" s="64"/>
@@ -11705,7 +11946,7 @@
     </row>
     <row r="102" spans="1:64" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A102" s="64"/>
-      <c r="B102" s="91"/>
+      <c r="B102" s="118"/>
       <c r="C102" s="80"/>
       <c r="D102" s="81"/>
       <c r="E102" s="64"/>
@@ -11752,7 +11993,7 @@
     </row>
     <row r="103" spans="1:64" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A103" s="64"/>
-      <c r="B103" s="91"/>
+      <c r="B103" s="118"/>
       <c r="C103" s="80"/>
       <c r="D103" s="81"/>
       <c r="E103" s="64"/>
@@ -11799,7 +12040,7 @@
     </row>
     <row r="104" spans="1:64" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A104" s="64"/>
-      <c r="B104" s="91"/>
+      <c r="B104" s="118"/>
       <c r="C104" s="80"/>
       <c r="D104" s="81"/>
       <c r="E104" s="64"/>
@@ -11846,7 +12087,7 @@
     </row>
     <row r="105" spans="1:64" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A105" s="64"/>
-      <c r="B105" s="91"/>
+      <c r="B105" s="118"/>
       <c r="C105" s="80"/>
       <c r="D105" s="81"/>
       <c r="E105" s="64"/>
@@ -11893,7 +12134,7 @@
     </row>
     <row r="106" spans="1:64" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A106" s="64"/>
-      <c r="B106" s="91"/>
+      <c r="B106" s="118"/>
       <c r="C106" s="80"/>
       <c r="D106" s="81"/>
       <c r="E106" s="64"/>
@@ -11940,7 +12181,7 @@
     </row>
     <row r="107" spans="1:64" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A107" s="64"/>
-      <c r="B107" s="91"/>
+      <c r="B107" s="118"/>
       <c r="C107" s="80"/>
       <c r="D107" s="81"/>
       <c r="E107" s="64"/>
@@ -11987,7 +12228,7 @@
     </row>
     <row r="108" spans="1:64" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A108" s="64"/>
-      <c r="B108" s="91"/>
+      <c r="B108" s="118"/>
       <c r="C108" s="80"/>
       <c r="D108" s="81"/>
       <c r="E108" s="64"/>
@@ -12034,7 +12275,7 @@
     </row>
     <row r="109" spans="1:64" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A109" s="64"/>
-      <c r="B109" s="91"/>
+      <c r="B109" s="118"/>
       <c r="C109" s="80"/>
       <c r="D109" s="81"/>
       <c r="E109" s="64"/>
@@ -12081,7 +12322,7 @@
     </row>
     <row r="110" spans="1:64" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A110" s="64"/>
-      <c r="B110" s="91"/>
+      <c r="B110" s="118"/>
       <c r="C110" s="80"/>
       <c r="D110" s="81"/>
       <c r="E110" s="64"/>
@@ -12128,7 +12369,7 @@
     </row>
     <row r="111" spans="1:64" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A111" s="64"/>
-      <c r="B111" s="91"/>
+      <c r="B111" s="118"/>
       <c r="C111" s="80"/>
       <c r="D111" s="81"/>
       <c r="E111" s="64"/>
@@ -12175,7 +12416,7 @@
     </row>
     <row r="112" spans="1:64" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A112" s="64"/>
-      <c r="B112" s="91"/>
+      <c r="B112" s="118"/>
       <c r="C112" s="80"/>
       <c r="D112" s="81"/>
       <c r="E112" s="64"/>
@@ -12222,7 +12463,7 @@
     </row>
     <row r="113" spans="1:64" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A113" s="64"/>
-      <c r="B113" s="91"/>
+      <c r="B113" s="118"/>
       <c r="C113" s="80"/>
       <c r="D113" s="81"/>
       <c r="E113" s="64"/>
@@ -12269,7 +12510,7 @@
     </row>
     <row r="114" spans="1:64" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A114" s="64"/>
-      <c r="B114" s="91"/>
+      <c r="B114" s="118"/>
       <c r="C114" s="80"/>
       <c r="D114" s="81"/>
       <c r="E114" s="64"/>
@@ -12316,7 +12557,7 @@
     </row>
     <row r="115" spans="1:64" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A115" s="64"/>
-      <c r="B115" s="91"/>
+      <c r="B115" s="118"/>
       <c r="C115" s="80"/>
       <c r="D115" s="81"/>
       <c r="E115" s="64"/>
@@ -12363,7 +12604,7 @@
     </row>
     <row r="116" spans="1:64" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A116" s="64"/>
-      <c r="B116" s="91"/>
+      <c r="B116" s="118"/>
       <c r="C116" s="80"/>
       <c r="D116" s="81"/>
       <c r="E116" s="64"/>
@@ -12410,7 +12651,7 @@
     </row>
     <row r="117" spans="1:64" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A117" s="64"/>
-      <c r="B117" s="91"/>
+      <c r="B117" s="118"/>
       <c r="C117" s="80"/>
       <c r="D117" s="81"/>
       <c r="E117" s="64"/>
@@ -12457,7 +12698,7 @@
     </row>
     <row r="118" spans="1:64" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A118" s="64"/>
-      <c r="B118" s="91"/>
+      <c r="B118" s="118"/>
       <c r="C118" s="80"/>
       <c r="D118" s="81"/>
       <c r="E118" s="64"/>
@@ -12504,7 +12745,7 @@
     </row>
     <row r="119" spans="1:64" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A119" s="64"/>
-      <c r="B119" s="91"/>
+      <c r="B119" s="118"/>
       <c r="C119" s="80"/>
       <c r="D119" s="81"/>
       <c r="E119" s="64"/>
@@ -12551,7 +12792,7 @@
     </row>
     <row r="120" spans="1:64" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A120" s="64"/>
-      <c r="B120" s="91"/>
+      <c r="B120" s="118"/>
       <c r="C120" s="80"/>
       <c r="D120" s="81"/>
       <c r="E120" s="64"/>
@@ -12598,7 +12839,7 @@
     </row>
     <row r="121" spans="1:64" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A121" s="64"/>
-      <c r="B121" s="91"/>
+      <c r="B121" s="118"/>
       <c r="C121" s="80"/>
       <c r="D121" s="81"/>
       <c r="E121" s="64"/>
@@ -12645,7 +12886,7 @@
     </row>
     <row r="122" spans="1:64" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A122" s="64"/>
-      <c r="B122" s="91"/>
+      <c r="B122" s="118"/>
       <c r="C122" s="80"/>
       <c r="D122" s="81"/>
       <c r="E122" s="64"/>
@@ -12692,7 +12933,7 @@
     </row>
     <row r="123" spans="1:64" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A123" s="64"/>
-      <c r="B123" s="91"/>
+      <c r="B123" s="118"/>
       <c r="C123" s="80"/>
       <c r="D123" s="81"/>
       <c r="E123" s="64"/>
@@ -12739,7 +12980,7 @@
     </row>
     <row r="124" spans="1:64" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A124" s="64"/>
-      <c r="B124" s="91"/>
+      <c r="B124" s="118"/>
       <c r="C124" s="80"/>
       <c r="D124" s="81"/>
       <c r="E124" s="64"/>
@@ -12786,7 +13027,7 @@
     </row>
     <row r="125" spans="1:64" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A125" s="64"/>
-      <c r="B125" s="91"/>
+      <c r="B125" s="118"/>
       <c r="C125" s="80"/>
       <c r="D125" s="81"/>
       <c r="E125" s="64"/>
@@ -12833,7 +13074,7 @@
     </row>
     <row r="126" spans="1:64" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A126" s="64"/>
-      <c r="B126" s="91"/>
+      <c r="B126" s="118"/>
       <c r="C126" s="80"/>
       <c r="D126" s="81"/>
       <c r="E126" s="64"/>
@@ -12880,7 +13121,7 @@
     </row>
     <row r="127" spans="1:64" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A127" s="64"/>
-      <c r="B127" s="91"/>
+      <c r="B127" s="118"/>
       <c r="C127" s="80"/>
       <c r="D127" s="81"/>
       <c r="E127" s="64"/>
@@ -12927,7 +13168,7 @@
     </row>
     <row r="128" spans="1:64" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A128" s="64"/>
-      <c r="B128" s="91"/>
+      <c r="B128" s="118"/>
       <c r="C128" s="80"/>
       <c r="D128" s="81"/>
       <c r="E128" s="64"/>
@@ -12974,7 +13215,7 @@
     </row>
     <row r="129" spans="1:64" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A129" s="64"/>
-      <c r="B129" s="91"/>
+      <c r="B129" s="118"/>
       <c r="C129" s="80"/>
       <c r="D129" s="81"/>
       <c r="E129" s="64"/>
@@ -13021,7 +13262,7 @@
     </row>
     <row r="130" spans="1:64" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A130" s="64"/>
-      <c r="B130" s="91"/>
+      <c r="B130" s="118"/>
       <c r="C130" s="80"/>
       <c r="D130" s="81"/>
       <c r="E130" s="64"/>
@@ -13068,7 +13309,7 @@
     </row>
     <row r="131" spans="1:64" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A131" s="64"/>
-      <c r="B131" s="91"/>
+      <c r="B131" s="118"/>
       <c r="C131" s="80"/>
       <c r="D131" s="81"/>
       <c r="E131" s="64"/>
@@ -13115,7 +13356,7 @@
     </row>
     <row r="132" spans="1:64" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A132" s="64"/>
-      <c r="B132" s="91"/>
+      <c r="B132" s="118"/>
       <c r="C132" s="80"/>
       <c r="D132" s="81"/>
       <c r="E132" s="64"/>
@@ -13162,7 +13403,7 @@
     </row>
     <row r="133" spans="1:64" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A133" s="64"/>
-      <c r="B133" s="91"/>
+      <c r="B133" s="118"/>
       <c r="C133" s="80"/>
       <c r="D133" s="81"/>
       <c r="E133" s="64"/>
@@ -13209,7 +13450,7 @@
     </row>
     <row r="134" spans="1:64" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A134" s="64"/>
-      <c r="B134" s="91"/>
+      <c r="B134" s="118"/>
       <c r="C134" s="80"/>
       <c r="D134" s="81"/>
       <c r="E134" s="64"/>
@@ -13256,7 +13497,7 @@
     </row>
     <row r="135" spans="1:64" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A135" s="64"/>
-      <c r="B135" s="91"/>
+      <c r="B135" s="118"/>
       <c r="C135" s="80"/>
       <c r="D135" s="81"/>
       <c r="E135" s="64"/>
@@ -13303,7 +13544,7 @@
     </row>
     <row r="136" spans="1:64" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A136" s="64"/>
-      <c r="B136" s="91"/>
+      <c r="B136" s="118"/>
       <c r="C136" s="80"/>
       <c r="D136" s="81"/>
       <c r="E136" s="64"/>
@@ -13350,7 +13591,7 @@
     </row>
     <row r="137" spans="1:64" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A137" s="64"/>
-      <c r="B137" s="91"/>
+      <c r="B137" s="118"/>
       <c r="C137" s="80"/>
       <c r="D137" s="81"/>
       <c r="E137" s="64"/>
@@ -13397,7 +13638,7 @@
     </row>
     <row r="138" spans="1:64" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A138" s="64"/>
-      <c r="B138" s="91"/>
+      <c r="B138" s="118"/>
       <c r="C138" s="80"/>
       <c r="D138" s="81"/>
       <c r="E138" s="64"/>
@@ -13444,7 +13685,7 @@
     </row>
     <row r="139" spans="1:64" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A139" s="64"/>
-      <c r="B139" s="91"/>
+      <c r="B139" s="118"/>
       <c r="C139" s="80"/>
       <c r="D139" s="81"/>
       <c r="E139" s="64"/>
@@ -13491,7 +13732,7 @@
     </row>
     <row r="140" spans="1:64" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A140" s="64"/>
-      <c r="B140" s="91"/>
+      <c r="B140" s="118"/>
       <c r="C140" s="80"/>
       <c r="D140" s="81"/>
       <c r="E140" s="64"/>
@@ -13538,7 +13779,7 @@
     </row>
     <row r="141" spans="1:64" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A141" s="64"/>
-      <c r="B141" s="91"/>
+      <c r="B141" s="118"/>
       <c r="C141" s="80"/>
       <c r="D141" s="81"/>
       <c r="E141" s="64"/>
@@ -13585,7 +13826,7 @@
     </row>
     <row r="142" spans="1:64" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A142" s="64"/>
-      <c r="B142" s="91"/>
+      <c r="B142" s="118"/>
       <c r="C142" s="80"/>
       <c r="D142" s="81"/>
       <c r="E142" s="64"/>
@@ -13632,7 +13873,7 @@
     </row>
     <row r="143" spans="1:64" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A143" s="64"/>
-      <c r="B143" s="91"/>
+      <c r="B143" s="118"/>
       <c r="C143" s="80"/>
       <c r="D143" s="81"/>
       <c r="E143" s="64"/>
@@ -13679,7 +13920,7 @@
     </row>
     <row r="144" spans="1:64" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A144" s="64"/>
-      <c r="B144" s="91"/>
+      <c r="B144" s="118"/>
       <c r="C144" s="80"/>
       <c r="D144" s="81"/>
       <c r="E144" s="64"/>
@@ -13726,7 +13967,7 @@
     </row>
     <row r="145" spans="1:64" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A145" s="64"/>
-      <c r="B145" s="91"/>
+      <c r="B145" s="118"/>
       <c r="C145" s="80"/>
       <c r="D145" s="81"/>
       <c r="E145" s="64"/>
@@ -13773,7 +14014,7 @@
     </row>
     <row r="146" spans="1:64" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A146" s="64"/>
-      <c r="B146" s="91"/>
+      <c r="B146" s="118"/>
       <c r="C146" s="80"/>
       <c r="D146" s="81"/>
       <c r="E146" s="64"/>
@@ -13820,7 +14061,7 @@
     </row>
     <row r="147" spans="1:64" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A147" s="64"/>
-      <c r="B147" s="91"/>
+      <c r="B147" s="118"/>
       <c r="C147" s="80"/>
       <c r="D147" s="81"/>
       <c r="E147" s="64"/>
@@ -13867,7 +14108,7 @@
     </row>
     <row r="148" spans="1:64" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A148" s="64"/>
-      <c r="B148" s="91"/>
+      <c r="B148" s="118"/>
       <c r="C148" s="80"/>
       <c r="D148" s="81"/>
       <c r="E148" s="64"/>
@@ -13914,7 +14155,7 @@
     </row>
     <row r="149" spans="1:64" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A149" s="64"/>
-      <c r="B149" s="91"/>
+      <c r="B149" s="118"/>
       <c r="C149" s="80"/>
       <c r="D149" s="81"/>
       <c r="E149" s="64"/>
@@ -13961,7 +14202,7 @@
     </row>
     <row r="150" spans="1:64" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A150" s="64"/>
-      <c r="B150" s="91"/>
+      <c r="B150" s="118"/>
       <c r="C150" s="80"/>
       <c r="D150" s="81"/>
       <c r="E150" s="64"/>
@@ -14008,7 +14249,7 @@
     </row>
     <row r="151" spans="1:64" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A151" s="64"/>
-      <c r="B151" s="91"/>
+      <c r="B151" s="118"/>
       <c r="C151" s="80"/>
       <c r="D151" s="81"/>
       <c r="E151" s="64"/>
@@ -14055,7 +14296,7 @@
     </row>
     <row r="152" spans="1:64" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A152" s="64"/>
-      <c r="B152" s="91"/>
+      <c r="B152" s="118"/>
       <c r="C152" s="80"/>
       <c r="D152" s="81"/>
       <c r="E152" s="64"/>
@@ -14102,7 +14343,7 @@
     </row>
     <row r="153" spans="1:64" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A153" s="64"/>
-      <c r="B153" s="91"/>
+      <c r="B153" s="118"/>
       <c r="C153" s="80"/>
       <c r="D153" s="81"/>
       <c r="E153" s="64"/>
@@ -14149,7 +14390,7 @@
     </row>
     <row r="154" spans="1:64" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A154" s="64"/>
-      <c r="B154" s="91"/>
+      <c r="B154" s="118"/>
       <c r="C154" s="80"/>
       <c r="D154" s="81"/>
       <c r="E154" s="64"/>
@@ -14196,7 +14437,7 @@
     </row>
     <row r="155" spans="1:64" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A155" s="64"/>
-      <c r="B155" s="91"/>
+      <c r="B155" s="118"/>
       <c r="C155" s="80"/>
       <c r="D155" s="81"/>
       <c r="E155" s="64"/>
@@ -14243,7 +14484,7 @@
     </row>
     <row r="156" spans="1:64" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A156" s="64"/>
-      <c r="B156" s="91"/>
+      <c r="B156" s="118"/>
       <c r="C156" s="80"/>
       <c r="D156" s="81"/>
       <c r="E156" s="64"/>
@@ -14290,7 +14531,7 @@
     </row>
     <row r="157" spans="1:64" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A157" s="64"/>
-      <c r="B157" s="91"/>
+      <c r="B157" s="118"/>
       <c r="C157" s="80"/>
       <c r="D157" s="81"/>
       <c r="E157" s="64"/>
@@ -14337,7 +14578,7 @@
     </row>
     <row r="158" spans="1:64" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A158" s="64"/>
-      <c r="B158" s="91"/>
+      <c r="B158" s="118"/>
       <c r="C158" s="80"/>
       <c r="D158" s="81"/>
       <c r="E158" s="64"/>
@@ -14384,7 +14625,7 @@
     </row>
     <row r="159" spans="1:64" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A159" s="64"/>
-      <c r="B159" s="91"/>
+      <c r="B159" s="118"/>
       <c r="C159" s="80"/>
       <c r="D159" s="81"/>
       <c r="E159" s="64"/>
@@ -14431,7 +14672,7 @@
     </row>
     <row r="160" spans="1:64" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A160" s="64"/>
-      <c r="B160" s="91"/>
+      <c r="B160" s="118"/>
       <c r="C160" s="80"/>
       <c r="D160" s="81"/>
       <c r="E160" s="64"/>
@@ -14478,7 +14719,7 @@
     </row>
     <row r="161" spans="1:64" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A161" s="64"/>
-      <c r="B161" s="91"/>
+      <c r="B161" s="118"/>
       <c r="C161" s="80"/>
       <c r="D161" s="81"/>
       <c r="E161" s="64"/>
@@ -14525,7 +14766,7 @@
     </row>
     <row r="162" spans="1:64" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A162" s="64"/>
-      <c r="B162" s="91"/>
+      <c r="B162" s="118"/>
       <c r="C162" s="80"/>
       <c r="D162" s="81"/>
       <c r="E162" s="64"/>
@@ -14572,7 +14813,7 @@
     </row>
     <row r="163" spans="1:64" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A163" s="64"/>
-      <c r="B163" s="91"/>
+      <c r="B163" s="118"/>
       <c r="C163" s="80"/>
       <c r="D163" s="81"/>
       <c r="E163" s="64"/>
@@ -14619,7 +14860,7 @@
     </row>
     <row r="164" spans="1:64" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A164" s="64"/>
-      <c r="B164" s="91"/>
+      <c r="B164" s="118"/>
       <c r="C164" s="80"/>
       <c r="D164" s="81"/>
       <c r="E164" s="64"/>
@@ -14666,7 +14907,7 @@
     </row>
     <row r="165" spans="1:64" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A165" s="64"/>
-      <c r="B165" s="91"/>
+      <c r="B165" s="118"/>
       <c r="C165" s="80"/>
       <c r="D165" s="81"/>
       <c r="E165" s="64"/>
@@ -14713,7 +14954,7 @@
     </row>
     <row r="166" spans="1:64" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A166" s="64"/>
-      <c r="B166" s="91"/>
+      <c r="B166" s="118"/>
       <c r="C166" s="80"/>
       <c r="D166" s="81"/>
       <c r="E166" s="64"/>
@@ -14760,7 +15001,7 @@
     </row>
     <row r="167" spans="1:64" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A167" s="64"/>
-      <c r="B167" s="91"/>
+      <c r="B167" s="118"/>
       <c r="C167" s="80"/>
       <c r="D167" s="81"/>
       <c r="E167" s="64"/>
@@ -14807,7 +15048,7 @@
     </row>
     <row r="168" spans="1:64" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A168" s="64"/>
-      <c r="B168" s="91"/>
+      <c r="B168" s="118"/>
       <c r="C168" s="80"/>
       <c r="D168" s="81"/>
       <c r="E168" s="64"/>
@@ -14854,7 +15095,7 @@
     </row>
     <row r="169" spans="1:64" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A169" s="64"/>
-      <c r="B169" s="91"/>
+      <c r="B169" s="118"/>
       <c r="C169" s="80"/>
       <c r="D169" s="81"/>
       <c r="E169" s="64"/>
@@ -14901,7 +15142,7 @@
     </row>
     <row r="170" spans="1:64" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A170" s="64"/>
-      <c r="B170" s="91"/>
+      <c r="B170" s="118"/>
       <c r="C170" s="80"/>
       <c r="D170" s="81"/>
       <c r="E170" s="64"/>
@@ -14948,7 +15189,7 @@
     </row>
     <row r="171" spans="1:64" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A171" s="64"/>
-      <c r="B171" s="91"/>
+      <c r="B171" s="118"/>
       <c r="C171" s="80"/>
       <c r="D171" s="81"/>
       <c r="E171" s="64"/>
@@ -14995,7 +15236,7 @@
     </row>
     <row r="172" spans="1:64" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A172" s="64"/>
-      <c r="B172" s="91"/>
+      <c r="B172" s="118"/>
       <c r="C172" s="80"/>
       <c r="D172" s="81"/>
       <c r="E172" s="64"/>
@@ -15042,7 +15283,7 @@
     </row>
     <row r="173" spans="1:64" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A173" s="64"/>
-      <c r="B173" s="91"/>
+      <c r="B173" s="118"/>
       <c r="C173" s="80"/>
       <c r="D173" s="81"/>
       <c r="E173" s="64"/>
@@ -15089,7 +15330,7 @@
     </row>
     <row r="174" spans="1:64" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A174" s="64"/>
-      <c r="B174" s="91"/>
+      <c r="B174" s="118"/>
       <c r="C174" s="80"/>
       <c r="D174" s="81"/>
       <c r="E174" s="64"/>
@@ -15136,7 +15377,7 @@
     </row>
     <row r="175" spans="1:64" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A175" s="64"/>
-      <c r="B175" s="91"/>
+      <c r="B175" s="118"/>
       <c r="C175" s="80"/>
       <c r="D175" s="81"/>
       <c r="E175" s="64"/>
@@ -15183,7 +15424,7 @@
     </row>
     <row r="176" spans="1:64" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A176" s="64"/>
-      <c r="B176" s="91"/>
+      <c r="B176" s="118"/>
       <c r="C176" s="80"/>
       <c r="D176" s="81"/>
       <c r="E176" s="64"/>
@@ -15230,7 +15471,7 @@
     </row>
     <row r="177" spans="1:64" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A177" s="64"/>
-      <c r="B177" s="91"/>
+      <c r="B177" s="118"/>
       <c r="C177" s="80"/>
       <c r="D177" s="81"/>
       <c r="E177" s="64"/>
@@ -15277,7 +15518,7 @@
     </row>
     <row r="178" spans="1:64" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A178" s="64"/>
-      <c r="B178" s="91"/>
+      <c r="B178" s="118"/>
       <c r="C178" s="80"/>
       <c r="D178" s="81"/>
       <c r="E178" s="64"/>
@@ -15324,7 +15565,7 @@
     </row>
     <row r="179" spans="1:64" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A179" s="64"/>
-      <c r="B179" s="91"/>
+      <c r="B179" s="118"/>
       <c r="C179" s="80"/>
       <c r="D179" s="81"/>
       <c r="E179" s="64"/>
@@ -15371,7 +15612,7 @@
     </row>
     <row r="180" spans="1:64" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A180" s="64"/>
-      <c r="B180" s="91"/>
+      <c r="B180" s="118"/>
       <c r="C180" s="80"/>
       <c r="D180" s="81"/>
       <c r="E180" s="64"/>
@@ -15418,7 +15659,7 @@
     </row>
     <row r="181" spans="1:64" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A181" s="64"/>
-      <c r="B181" s="91"/>
+      <c r="B181" s="118"/>
       <c r="C181" s="80"/>
       <c r="D181" s="81"/>
       <c r="E181" s="64"/>
@@ -15465,7 +15706,7 @@
     </row>
     <row r="182" spans="1:64" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A182" s="64"/>
-      <c r="B182" s="91"/>
+      <c r="B182" s="118"/>
       <c r="C182" s="80"/>
       <c r="D182" s="81"/>
       <c r="E182" s="64"/>
@@ -15512,7 +15753,7 @@
     </row>
     <row r="183" spans="1:64" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A183" s="64"/>
-      <c r="B183" s="91"/>
+      <c r="B183" s="118"/>
       <c r="C183" s="80"/>
       <c r="D183" s="81"/>
       <c r="E183" s="64"/>
@@ -15559,7 +15800,7 @@
     </row>
     <row r="184" spans="1:64" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A184" s="64"/>
-      <c r="B184" s="91"/>
+      <c r="B184" s="118"/>
       <c r="C184" s="80"/>
       <c r="D184" s="81"/>
       <c r="E184" s="64"/>
@@ -15606,7 +15847,7 @@
     </row>
     <row r="185" spans="1:64" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A185" s="64"/>
-      <c r="B185" s="91"/>
+      <c r="B185" s="118"/>
       <c r="C185" s="80"/>
       <c r="D185" s="81"/>
       <c r="E185" s="64"/>
@@ -15653,7 +15894,7 @@
     </row>
     <row r="186" spans="1:64" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A186" s="64"/>
-      <c r="B186" s="91"/>
+      <c r="B186" s="118"/>
       <c r="C186" s="80"/>
       <c r="D186" s="81"/>
       <c r="E186" s="64"/>
@@ -15700,7 +15941,7 @@
     </row>
     <row r="187" spans="1:64" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A187" s="64"/>
-      <c r="B187" s="91"/>
+      <c r="B187" s="118"/>
       <c r="C187" s="80"/>
       <c r="D187" s="81"/>
       <c r="E187" s="64"/>
@@ -15747,7 +15988,7 @@
     </row>
     <row r="188" spans="1:64" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A188" s="64"/>
-      <c r="B188" s="91"/>
+      <c r="B188" s="118"/>
       <c r="C188" s="80"/>
       <c r="D188" s="81"/>
       <c r="E188" s="64"/>
@@ -15794,7 +16035,7 @@
     </row>
     <row r="189" spans="1:64" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A189" s="64"/>
-      <c r="B189" s="91"/>
+      <c r="B189" s="118"/>
       <c r="C189" s="80"/>
       <c r="D189" s="81"/>
       <c r="E189" s="64"/>
@@ -15841,7 +16082,7 @@
     </row>
     <row r="190" spans="1:64" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A190" s="64"/>
-      <c r="B190" s="91"/>
+      <c r="B190" s="118"/>
       <c r="C190" s="80"/>
       <c r="D190" s="81"/>
       <c r="E190" s="64"/>
@@ -15888,7 +16129,7 @@
     </row>
     <row r="191" spans="1:64" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A191" s="64"/>
-      <c r="B191" s="91"/>
+      <c r="B191" s="118"/>
       <c r="C191" s="80"/>
       <c r="D191" s="81"/>
       <c r="E191" s="64"/>
@@ -15935,7 +16176,7 @@
     </row>
     <row r="192" spans="1:64" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A192" s="64"/>
-      <c r="B192" s="91"/>
+      <c r="B192" s="118"/>
       <c r="C192" s="80"/>
       <c r="D192" s="81"/>
       <c r="E192" s="64"/>
@@ -15982,7 +16223,7 @@
     </row>
     <row r="193" spans="1:64" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A193" s="64"/>
-      <c r="B193" s="91"/>
+      <c r="B193" s="118"/>
       <c r="C193" s="80"/>
       <c r="D193" s="81"/>
       <c r="E193" s="64"/>
@@ -16029,7 +16270,7 @@
     </row>
     <row r="194" spans="1:64" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A194" s="64"/>
-      <c r="B194" s="91"/>
+      <c r="B194" s="118"/>
       <c r="C194" s="80"/>
       <c r="D194" s="81"/>
       <c r="E194" s="64"/>
@@ -16076,7 +16317,7 @@
     </row>
     <row r="195" spans="1:64" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A195" s="64"/>
-      <c r="B195" s="91"/>
+      <c r="B195" s="118"/>
       <c r="C195" s="80"/>
       <c r="D195" s="81"/>
       <c r="E195" s="64"/>
@@ -16123,7 +16364,7 @@
     </row>
     <row r="196" spans="1:64" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A196" s="64"/>
-      <c r="B196" s="91"/>
+      <c r="B196" s="118"/>
       <c r="C196" s="80"/>
       <c r="D196" s="81"/>
       <c r="E196" s="64"/>
@@ -16170,7 +16411,7 @@
     </row>
     <row r="197" spans="1:64" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A197" s="64"/>
-      <c r="B197" s="91"/>
+      <c r="B197" s="118"/>
       <c r="C197" s="80"/>
       <c r="D197" s="81"/>
       <c r="E197" s="64"/>
@@ -16217,7 +16458,7 @@
     </row>
     <row r="198" spans="1:64" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A198" s="64"/>
-      <c r="B198" s="91"/>
+      <c r="B198" s="118"/>
       <c r="C198" s="80"/>
       <c r="D198" s="81"/>
       <c r="E198" s="64"/>
@@ -16264,7 +16505,7 @@
     </row>
     <row r="199" spans="1:64" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A199" s="64"/>
-      <c r="B199" s="91"/>
+      <c r="B199" s="118"/>
       <c r="C199" s="80"/>
       <c r="D199" s="81"/>
       <c r="E199" s="64"/>
@@ -16311,7 +16552,7 @@
     </row>
     <row r="200" spans="1:64" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A200" s="64"/>
-      <c r="B200" s="91"/>
+      <c r="B200" s="118"/>
       <c r="C200" s="80"/>
       <c r="D200" s="81"/>
       <c r="E200" s="64"/>
@@ -16358,7 +16599,7 @@
     </row>
     <row r="201" spans="1:64" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A201" s="64"/>
-      <c r="B201" s="91"/>
+      <c r="B201" s="118"/>
       <c r="C201" s="80"/>
       <c r="D201" s="81"/>
       <c r="E201" s="64"/>
@@ -16405,7 +16646,7 @@
     </row>
     <row r="202" spans="1:64" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A202" s="64"/>
-      <c r="B202" s="91"/>
+      <c r="B202" s="118"/>
       <c r="C202" s="80"/>
       <c r="D202" s="81"/>
       <c r="E202" s="64"/>
@@ -16452,7 +16693,7 @@
     </row>
     <row r="203" spans="1:64" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A203" s="64"/>
-      <c r="B203" s="91"/>
+      <c r="B203" s="118"/>
       <c r="C203" s="80"/>
       <c r="D203" s="81"/>
       <c r="E203" s="64"/>
@@ -16499,7 +16740,7 @@
     </row>
     <row r="204" spans="1:64" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A204" s="64"/>
-      <c r="B204" s="91"/>
+      <c r="B204" s="118"/>
       <c r="C204" s="80"/>
       <c r="D204" s="81"/>
       <c r="E204" s="64"/>
@@ -16546,7 +16787,7 @@
     </row>
     <row r="205" spans="1:64" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A205" s="64"/>
-      <c r="B205" s="91"/>
+      <c r="B205" s="118"/>
       <c r="C205" s="80"/>
       <c r="D205" s="81"/>
       <c r="E205" s="64"/>
@@ -16593,7 +16834,7 @@
     </row>
     <row r="206" spans="1:64" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A206" s="64"/>
-      <c r="B206" s="91"/>
+      <c r="B206" s="118"/>
       <c r="C206" s="80"/>
       <c r="D206" s="81"/>
       <c r="E206" s="64"/>
@@ -16640,7 +16881,7 @@
     </row>
     <row r="207" spans="1:64" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A207" s="64"/>
-      <c r="B207" s="91"/>
+      <c r="B207" s="118"/>
       <c r="C207" s="80"/>
       <c r="D207" s="81"/>
       <c r="E207" s="64"/>
@@ -16687,7 +16928,7 @@
     </row>
     <row r="208" spans="1:64" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A208" s="64"/>
-      <c r="B208" s="91"/>
+      <c r="B208" s="118"/>
       <c r="C208" s="80"/>
       <c r="D208" s="81"/>
       <c r="E208" s="64"/>
@@ -16734,7 +16975,7 @@
     </row>
     <row r="209" spans="1:64" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A209" s="64"/>
-      <c r="B209" s="91"/>
+      <c r="B209" s="118"/>
       <c r="C209" s="80"/>
       <c r="D209" s="81"/>
       <c r="E209" s="64"/>
@@ -16781,7 +17022,7 @@
     </row>
     <row r="210" spans="1:64" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A210" s="64"/>
-      <c r="B210" s="91"/>
+      <c r="B210" s="118"/>
       <c r="C210" s="80"/>
       <c r="D210" s="81"/>
       <c r="E210" s="64"/>
@@ -16828,7 +17069,7 @@
     </row>
     <row r="211" spans="1:64" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A211" s="64"/>
-      <c r="B211" s="91"/>
+      <c r="B211" s="118"/>
       <c r="C211" s="80"/>
       <c r="D211" s="81"/>
       <c r="E211" s="64"/>
@@ -16875,7 +17116,7 @@
     </row>
     <row r="212" spans="1:64" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A212" s="64"/>
-      <c r="B212" s="91"/>
+      <c r="B212" s="118"/>
       <c r="C212" s="80"/>
       <c r="D212" s="81"/>
       <c r="E212" s="64"/>
@@ -16922,7 +17163,7 @@
     </row>
     <row r="213" spans="1:64" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A213" s="64"/>
-      <c r="B213" s="91"/>
+      <c r="B213" s="118"/>
       <c r="C213" s="80"/>
       <c r="D213" s="81"/>
       <c r="E213" s="64"/>
@@ -16969,7 +17210,7 @@
     </row>
     <row r="214" spans="1:64" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A214" s="64"/>
-      <c r="B214" s="91"/>
+      <c r="B214" s="118"/>
       <c r="C214" s="80"/>
       <c r="D214" s="81"/>
       <c r="E214" s="64"/>
@@ -17016,7 +17257,7 @@
     </row>
     <row r="215" spans="1:64" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A215" s="64"/>
-      <c r="B215" s="91"/>
+      <c r="B215" s="118"/>
       <c r="C215" s="80"/>
       <c r="D215" s="81"/>
       <c r="E215" s="64"/>
@@ -17063,7 +17304,7 @@
     </row>
     <row r="216" spans="1:64" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A216" s="64"/>
-      <c r="B216" s="91"/>
+      <c r="B216" s="118"/>
       <c r="C216" s="80"/>
       <c r="D216" s="81"/>
       <c r="E216" s="64"/>
@@ -17110,7 +17351,7 @@
     </row>
     <row r="217" spans="1:64" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A217" s="64"/>
-      <c r="B217" s="91"/>
+      <c r="B217" s="118"/>
       <c r="C217" s="80"/>
       <c r="D217" s="81"/>
       <c r="E217" s="64"/>
@@ -21992,188 +22233,6 @@
     </filterColumn>
   </autoFilter>
   <mergeCells count="206">
-    <mergeCell ref="H8:N9"/>
-    <mergeCell ref="AC8:AH9"/>
-    <mergeCell ref="A8:G8"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="B13:D13"/>
-    <mergeCell ref="B14:D14"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="B20:D20"/>
-    <mergeCell ref="B21:D21"/>
-    <mergeCell ref="B23:D23"/>
-    <mergeCell ref="E6:G6"/>
-    <mergeCell ref="E7:G7"/>
-    <mergeCell ref="B24:D24"/>
-    <mergeCell ref="B26:D26"/>
-    <mergeCell ref="B27:D27"/>
-    <mergeCell ref="B28:D28"/>
-    <mergeCell ref="B29:D29"/>
-    <mergeCell ref="B32:D32"/>
-    <mergeCell ref="B33:D33"/>
-    <mergeCell ref="B34:D34"/>
-    <mergeCell ref="B36:D36"/>
-    <mergeCell ref="B39:D39"/>
-    <mergeCell ref="B40:D40"/>
-    <mergeCell ref="B41:D41"/>
-    <mergeCell ref="B42:D42"/>
-    <mergeCell ref="B43:D43"/>
-    <mergeCell ref="B44:D44"/>
-    <mergeCell ref="B45:D45"/>
-    <mergeCell ref="B46:D46"/>
-    <mergeCell ref="B47:D47"/>
-    <mergeCell ref="B48:D48"/>
-    <mergeCell ref="B49:D49"/>
-    <mergeCell ref="B50:D50"/>
-    <mergeCell ref="B52:D52"/>
-    <mergeCell ref="B53:D53"/>
-    <mergeCell ref="B51:D51"/>
-    <mergeCell ref="B54:D54"/>
-    <mergeCell ref="B55:D55"/>
-    <mergeCell ref="B56:D56"/>
-    <mergeCell ref="B57:D57"/>
-    <mergeCell ref="B58:D58"/>
-    <mergeCell ref="B59:D59"/>
-    <mergeCell ref="B60:D60"/>
-    <mergeCell ref="B61:D61"/>
-    <mergeCell ref="B62:D62"/>
-    <mergeCell ref="B63:D63"/>
-    <mergeCell ref="B64:D64"/>
-    <mergeCell ref="B65:D65"/>
-    <mergeCell ref="B66:D66"/>
-    <mergeCell ref="B67:D67"/>
-    <mergeCell ref="B68:D68"/>
-    <mergeCell ref="B69:D69"/>
-    <mergeCell ref="B70:D70"/>
-    <mergeCell ref="B71:D71"/>
-    <mergeCell ref="B72:D72"/>
-    <mergeCell ref="B73:D73"/>
-    <mergeCell ref="B74:D74"/>
-    <mergeCell ref="B75:D75"/>
-    <mergeCell ref="B76:D76"/>
-    <mergeCell ref="B77:D77"/>
-    <mergeCell ref="B78:D78"/>
-    <mergeCell ref="B79:D79"/>
-    <mergeCell ref="B80:D80"/>
-    <mergeCell ref="B81:D81"/>
-    <mergeCell ref="B82:D82"/>
-    <mergeCell ref="B83:D83"/>
-    <mergeCell ref="B84:D84"/>
-    <mergeCell ref="B85:D85"/>
-    <mergeCell ref="B86:D86"/>
-    <mergeCell ref="B87:D87"/>
-    <mergeCell ref="B88:D88"/>
-    <mergeCell ref="B89:D89"/>
-    <mergeCell ref="B90:D90"/>
-    <mergeCell ref="B91:D91"/>
-    <mergeCell ref="B92:D92"/>
-    <mergeCell ref="B93:D93"/>
-    <mergeCell ref="B94:D94"/>
-    <mergeCell ref="B95:D95"/>
-    <mergeCell ref="B96:D96"/>
-    <mergeCell ref="B97:D97"/>
-    <mergeCell ref="B98:D98"/>
-    <mergeCell ref="B99:D99"/>
-    <mergeCell ref="B100:D100"/>
-    <mergeCell ref="B101:D101"/>
-    <mergeCell ref="B102:D102"/>
-    <mergeCell ref="B103:D103"/>
-    <mergeCell ref="B104:D104"/>
-    <mergeCell ref="B105:D105"/>
-    <mergeCell ref="B106:D106"/>
-    <mergeCell ref="B107:D107"/>
-    <mergeCell ref="B108:D108"/>
-    <mergeCell ref="B109:D109"/>
-    <mergeCell ref="B212:D212"/>
-    <mergeCell ref="B159:D159"/>
-    <mergeCell ref="B160:D160"/>
-    <mergeCell ref="B161:D161"/>
-    <mergeCell ref="B162:D162"/>
-    <mergeCell ref="B163:D163"/>
-    <mergeCell ref="B164:D164"/>
-    <mergeCell ref="B165:D165"/>
-    <mergeCell ref="B166:D166"/>
-    <mergeCell ref="B167:D167"/>
-    <mergeCell ref="B168:D168"/>
-    <mergeCell ref="B169:D169"/>
-    <mergeCell ref="B170:D170"/>
-    <mergeCell ref="B171:D171"/>
-    <mergeCell ref="B172:D172"/>
-    <mergeCell ref="B173:D173"/>
-    <mergeCell ref="B213:D213"/>
-    <mergeCell ref="B215:D215"/>
-    <mergeCell ref="B216:D216"/>
-    <mergeCell ref="B217:D217"/>
-    <mergeCell ref="B208:D208"/>
-    <mergeCell ref="B209:D209"/>
-    <mergeCell ref="B210:D210"/>
-    <mergeCell ref="B211:D211"/>
-    <mergeCell ref="B214:D214"/>
-    <mergeCell ref="B174:D174"/>
-    <mergeCell ref="B175:D175"/>
-    <mergeCell ref="B176:D176"/>
-    <mergeCell ref="B177:D177"/>
-    <mergeCell ref="B178:D178"/>
-    <mergeCell ref="B179:D179"/>
-    <mergeCell ref="B180:D180"/>
-    <mergeCell ref="B181:D181"/>
-    <mergeCell ref="B182:D182"/>
-    <mergeCell ref="B183:D183"/>
-    <mergeCell ref="B184:D184"/>
-    <mergeCell ref="B185:D185"/>
-    <mergeCell ref="B186:D186"/>
-    <mergeCell ref="B187:D187"/>
-    <mergeCell ref="B188:D188"/>
-    <mergeCell ref="B189:D189"/>
-    <mergeCell ref="B190:D190"/>
-    <mergeCell ref="B191:D191"/>
-    <mergeCell ref="B192:D192"/>
-    <mergeCell ref="B193:D193"/>
-    <mergeCell ref="B201:D201"/>
-    <mergeCell ref="B202:D202"/>
-    <mergeCell ref="B203:D203"/>
-    <mergeCell ref="B204:D204"/>
-    <mergeCell ref="B205:D205"/>
-    <mergeCell ref="B206:D206"/>
-    <mergeCell ref="B207:D207"/>
-    <mergeCell ref="B194:D194"/>
-    <mergeCell ref="B195:D195"/>
-    <mergeCell ref="B196:D196"/>
-    <mergeCell ref="B197:D197"/>
-    <mergeCell ref="B198:D198"/>
-    <mergeCell ref="B199:D199"/>
-    <mergeCell ref="B200:D200"/>
-    <mergeCell ref="B110:D110"/>
-    <mergeCell ref="B111:D111"/>
-    <mergeCell ref="B112:D112"/>
-    <mergeCell ref="B113:D113"/>
-    <mergeCell ref="B114:D114"/>
-    <mergeCell ref="B115:D115"/>
-    <mergeCell ref="B116:D116"/>
-    <mergeCell ref="B117:D117"/>
-    <mergeCell ref="B118:D118"/>
-    <mergeCell ref="B119:D119"/>
-    <mergeCell ref="B120:D120"/>
-    <mergeCell ref="B121:D121"/>
-    <mergeCell ref="B122:D122"/>
-    <mergeCell ref="B123:D123"/>
-    <mergeCell ref="B124:D124"/>
-    <mergeCell ref="B125:D125"/>
-    <mergeCell ref="B126:D126"/>
-    <mergeCell ref="B127:D127"/>
-    <mergeCell ref="B145:D145"/>
-    <mergeCell ref="B128:D128"/>
-    <mergeCell ref="B129:D129"/>
-    <mergeCell ref="B130:D130"/>
-    <mergeCell ref="B131:D131"/>
-    <mergeCell ref="B132:D132"/>
-    <mergeCell ref="B133:D133"/>
-    <mergeCell ref="B134:D134"/>
-    <mergeCell ref="B135:D135"/>
-    <mergeCell ref="B136:D136"/>
     <mergeCell ref="B155:D155"/>
     <mergeCell ref="B156:D156"/>
     <mergeCell ref="B157:D157"/>
@@ -22198,6 +22257,188 @@
     <mergeCell ref="B142:D142"/>
     <mergeCell ref="B143:D143"/>
     <mergeCell ref="B144:D144"/>
+    <mergeCell ref="B145:D145"/>
+    <mergeCell ref="B128:D128"/>
+    <mergeCell ref="B129:D129"/>
+    <mergeCell ref="B130:D130"/>
+    <mergeCell ref="B131:D131"/>
+    <mergeCell ref="B132:D132"/>
+    <mergeCell ref="B133:D133"/>
+    <mergeCell ref="B134:D134"/>
+    <mergeCell ref="B135:D135"/>
+    <mergeCell ref="B136:D136"/>
+    <mergeCell ref="B119:D119"/>
+    <mergeCell ref="B120:D120"/>
+    <mergeCell ref="B121:D121"/>
+    <mergeCell ref="B122:D122"/>
+    <mergeCell ref="B123:D123"/>
+    <mergeCell ref="B124:D124"/>
+    <mergeCell ref="B125:D125"/>
+    <mergeCell ref="B126:D126"/>
+    <mergeCell ref="B127:D127"/>
+    <mergeCell ref="B110:D110"/>
+    <mergeCell ref="B111:D111"/>
+    <mergeCell ref="B112:D112"/>
+    <mergeCell ref="B113:D113"/>
+    <mergeCell ref="B114:D114"/>
+    <mergeCell ref="B115:D115"/>
+    <mergeCell ref="B116:D116"/>
+    <mergeCell ref="B117:D117"/>
+    <mergeCell ref="B118:D118"/>
+    <mergeCell ref="B202:D202"/>
+    <mergeCell ref="B203:D203"/>
+    <mergeCell ref="B204:D204"/>
+    <mergeCell ref="B205:D205"/>
+    <mergeCell ref="B206:D206"/>
+    <mergeCell ref="B207:D207"/>
+    <mergeCell ref="B194:D194"/>
+    <mergeCell ref="B195:D195"/>
+    <mergeCell ref="B196:D196"/>
+    <mergeCell ref="B197:D197"/>
+    <mergeCell ref="B198:D198"/>
+    <mergeCell ref="B199:D199"/>
+    <mergeCell ref="B200:D200"/>
+    <mergeCell ref="B186:D186"/>
+    <mergeCell ref="B187:D187"/>
+    <mergeCell ref="B188:D188"/>
+    <mergeCell ref="B189:D189"/>
+    <mergeCell ref="B190:D190"/>
+    <mergeCell ref="B191:D191"/>
+    <mergeCell ref="B192:D192"/>
+    <mergeCell ref="B193:D193"/>
+    <mergeCell ref="B201:D201"/>
+    <mergeCell ref="B177:D177"/>
+    <mergeCell ref="B178:D178"/>
+    <mergeCell ref="B179:D179"/>
+    <mergeCell ref="B180:D180"/>
+    <mergeCell ref="B181:D181"/>
+    <mergeCell ref="B182:D182"/>
+    <mergeCell ref="B183:D183"/>
+    <mergeCell ref="B184:D184"/>
+    <mergeCell ref="B185:D185"/>
+    <mergeCell ref="B213:D213"/>
+    <mergeCell ref="B215:D215"/>
+    <mergeCell ref="B216:D216"/>
+    <mergeCell ref="B217:D217"/>
+    <mergeCell ref="B208:D208"/>
+    <mergeCell ref="B209:D209"/>
+    <mergeCell ref="B210:D210"/>
+    <mergeCell ref="B211:D211"/>
+    <mergeCell ref="B214:D214"/>
+    <mergeCell ref="B105:D105"/>
+    <mergeCell ref="B106:D106"/>
+    <mergeCell ref="B107:D107"/>
+    <mergeCell ref="B108:D108"/>
+    <mergeCell ref="B109:D109"/>
+    <mergeCell ref="B212:D212"/>
+    <mergeCell ref="B159:D159"/>
+    <mergeCell ref="B160:D160"/>
+    <mergeCell ref="B161:D161"/>
+    <mergeCell ref="B162:D162"/>
+    <mergeCell ref="B163:D163"/>
+    <mergeCell ref="B164:D164"/>
+    <mergeCell ref="B165:D165"/>
+    <mergeCell ref="B166:D166"/>
+    <mergeCell ref="B167:D167"/>
+    <mergeCell ref="B168:D168"/>
+    <mergeCell ref="B169:D169"/>
+    <mergeCell ref="B170:D170"/>
+    <mergeCell ref="B171:D171"/>
+    <mergeCell ref="B172:D172"/>
+    <mergeCell ref="B173:D173"/>
+    <mergeCell ref="B174:D174"/>
+    <mergeCell ref="B175:D175"/>
+    <mergeCell ref="B176:D176"/>
+    <mergeCell ref="B96:D96"/>
+    <mergeCell ref="B97:D97"/>
+    <mergeCell ref="B98:D98"/>
+    <mergeCell ref="B99:D99"/>
+    <mergeCell ref="B100:D100"/>
+    <mergeCell ref="B101:D101"/>
+    <mergeCell ref="B102:D102"/>
+    <mergeCell ref="B103:D103"/>
+    <mergeCell ref="B104:D104"/>
+    <mergeCell ref="B87:D87"/>
+    <mergeCell ref="B88:D88"/>
+    <mergeCell ref="B89:D89"/>
+    <mergeCell ref="B90:D90"/>
+    <mergeCell ref="B91:D91"/>
+    <mergeCell ref="B92:D92"/>
+    <mergeCell ref="B93:D93"/>
+    <mergeCell ref="B94:D94"/>
+    <mergeCell ref="B95:D95"/>
+    <mergeCell ref="B78:D78"/>
+    <mergeCell ref="B79:D79"/>
+    <mergeCell ref="B80:D80"/>
+    <mergeCell ref="B81:D81"/>
+    <mergeCell ref="B82:D82"/>
+    <mergeCell ref="B83:D83"/>
+    <mergeCell ref="B84:D84"/>
+    <mergeCell ref="B85:D85"/>
+    <mergeCell ref="B86:D86"/>
+    <mergeCell ref="B69:D69"/>
+    <mergeCell ref="B70:D70"/>
+    <mergeCell ref="B71:D71"/>
+    <mergeCell ref="B72:D72"/>
+    <mergeCell ref="B73:D73"/>
+    <mergeCell ref="B74:D74"/>
+    <mergeCell ref="B75:D75"/>
+    <mergeCell ref="B76:D76"/>
+    <mergeCell ref="B77:D77"/>
+    <mergeCell ref="B60:D60"/>
+    <mergeCell ref="B61:D61"/>
+    <mergeCell ref="B62:D62"/>
+    <mergeCell ref="B63:D63"/>
+    <mergeCell ref="B64:D64"/>
+    <mergeCell ref="B65:D65"/>
+    <mergeCell ref="B66:D66"/>
+    <mergeCell ref="B67:D67"/>
+    <mergeCell ref="B68:D68"/>
+    <mergeCell ref="B52:D52"/>
+    <mergeCell ref="B53:D53"/>
+    <mergeCell ref="B51:D51"/>
+    <mergeCell ref="B54:D54"/>
+    <mergeCell ref="B55:D55"/>
+    <mergeCell ref="B56:D56"/>
+    <mergeCell ref="B57:D57"/>
+    <mergeCell ref="B58:D58"/>
+    <mergeCell ref="B59:D59"/>
+    <mergeCell ref="B42:D42"/>
+    <mergeCell ref="B43:D43"/>
+    <mergeCell ref="B44:D44"/>
+    <mergeCell ref="B45:D45"/>
+    <mergeCell ref="B46:D46"/>
+    <mergeCell ref="B47:D47"/>
+    <mergeCell ref="B48:D48"/>
+    <mergeCell ref="B49:D49"/>
+    <mergeCell ref="B50:D50"/>
+    <mergeCell ref="B28:D28"/>
+    <mergeCell ref="B29:D29"/>
+    <mergeCell ref="B32:D32"/>
+    <mergeCell ref="B33:D33"/>
+    <mergeCell ref="B34:D34"/>
+    <mergeCell ref="B36:D36"/>
+    <mergeCell ref="B39:D39"/>
+    <mergeCell ref="B40:D40"/>
+    <mergeCell ref="B41:D41"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="B23:D23"/>
+    <mergeCell ref="E6:G6"/>
+    <mergeCell ref="E7:G7"/>
+    <mergeCell ref="B24:D24"/>
+    <mergeCell ref="B26:D26"/>
+    <mergeCell ref="B27:D27"/>
+    <mergeCell ref="H8:N9"/>
+    <mergeCell ref="AC8:AH9"/>
+    <mergeCell ref="A8:G8"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="B17:D17"/>
   </mergeCells>
   <conditionalFormatting sqref="H4:AK4">
     <cfRule type="cellIs" dxfId="15" priority="1" operator="equal">
@@ -22305,8 +22546,8 @@
   </sheetPr>
   <dimension ref="A1:BC1000"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A36" workbookViewId="0">
-      <selection activeCell="AC49" sqref="AC49"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="AM51" sqref="AM51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -22446,196 +22687,169 @@
       </c>
       <c r="H57" s="70">
         <f>Datos!N5</f>
-        <v>0</v>
+        <v>44577</v>
       </c>
       <c r="I57" s="70">
         <f>Datos!O5</f>
-        <v>0</v>
+        <v>44578</v>
       </c>
       <c r="J57" s="70">
         <f>Datos!P5</f>
-        <v>0</v>
+        <v>44579</v>
       </c>
       <c r="K57" s="70">
         <f>Datos!Q5</f>
-        <v>0</v>
+        <v>44580</v>
       </c>
       <c r="L57" s="70">
         <f>Datos!R5</f>
-        <v>0</v>
+        <v>44581</v>
       </c>
       <c r="M57" s="70">
         <f>Datos!S5</f>
-        <v>0</v>
+        <v>44582</v>
       </c>
       <c r="N57" s="70">
         <f>Datos!T5</f>
-        <v>0</v>
+        <v>44583</v>
       </c>
       <c r="O57" s="70">
         <f>Datos!U5</f>
-        <v>0</v>
+        <v>44584</v>
       </c>
       <c r="P57" s="70">
         <f>Datos!V5</f>
-        <v>0</v>
+        <v>44585</v>
       </c>
       <c r="Q57" s="70">
         <f>Datos!W5</f>
-        <v>0</v>
+        <v>44586</v>
       </c>
       <c r="R57" s="70">
         <f>Datos!X5</f>
-        <v>0</v>
+        <v>44587</v>
       </c>
       <c r="S57" s="70">
         <f>Datos!Y5</f>
-        <v>0</v>
+        <v>44588</v>
       </c>
       <c r="T57" s="70">
         <f>Datos!Z5</f>
-        <v>0</v>
+        <v>44589</v>
       </c>
       <c r="U57" s="70">
         <f>Datos!AA5</f>
-        <v>0</v>
+        <v>44590</v>
       </c>
       <c r="V57" s="70">
         <f>Datos!AB5</f>
-        <v>0</v>
+        <v>44591</v>
       </c>
       <c r="W57" s="70">
         <f>Datos!AC5</f>
-        <v>0</v>
+        <v>44592</v>
       </c>
       <c r="X57" s="70">
         <f>Datos!AD5</f>
-        <v>0</v>
+        <v>44593</v>
       </c>
       <c r="Y57" s="70">
         <f>Datos!AE5</f>
-        <v>0</v>
+        <v>44594</v>
       </c>
       <c r="Z57" s="70">
         <f>Datos!AF5</f>
-        <v>0</v>
+        <v>44595</v>
       </c>
       <c r="AA57" s="70">
         <f>Datos!AG5</f>
-        <v>0</v>
+        <v>44596</v>
       </c>
       <c r="AB57" s="70">
         <f>Datos!AH5</f>
-        <v>0</v>
+        <v>44597</v>
       </c>
       <c r="AC57" s="70">
         <f>Datos!AI5</f>
-        <v>0</v>
+        <v>44598</v>
       </c>
       <c r="AD57" s="70">
         <f>Datos!AJ5</f>
-        <v>0</v>
+        <v>44599</v>
       </c>
       <c r="AE57" s="70">
         <f>Datos!AK5</f>
-        <v>0</v>
+        <v>44600</v>
       </c>
       <c r="AF57" s="70">
         <f>Datos!AL5</f>
-        <v>0</v>
+        <v>44601</v>
       </c>
       <c r="AG57" s="70">
         <f>Datos!AM5</f>
-        <v>0</v>
+        <v>44602</v>
       </c>
       <c r="AH57" s="70">
         <f>Datos!AN5</f>
-        <v>0</v>
+        <v>44603</v>
       </c>
       <c r="AI57" s="70">
         <f>Datos!AO5</f>
-        <v>0</v>
+        <v>44604</v>
       </c>
       <c r="AJ57" s="70">
         <f>Datos!AP5</f>
-        <v>0</v>
+        <v>44605</v>
       </c>
       <c r="AK57" s="70">
         <f>Datos!AQ5</f>
-        <v>0</v>
+        <v>44606</v>
       </c>
       <c r="AL57" s="70">
         <f>Datos!AR5</f>
-        <v>0</v>
+        <v>44607</v>
       </c>
       <c r="AM57" s="70">
         <f>Datos!AS5</f>
-        <v>0</v>
+        <v>44608</v>
       </c>
       <c r="AN57" s="70">
         <f>Datos!AT5</f>
-        <v>0</v>
+        <v>44609</v>
       </c>
       <c r="AO57" s="70">
         <f>Datos!AU5</f>
-        <v>0</v>
+        <v>44610</v>
       </c>
       <c r="AP57" s="70">
         <f>Datos!AV5</f>
-        <v>0</v>
+        <v>44611</v>
       </c>
       <c r="AQ57" s="70">
         <f>Datos!AW5</f>
-        <v>0</v>
+        <v>44612</v>
       </c>
       <c r="AR57" s="70">
         <f>Datos!AX5</f>
-        <v>0</v>
+        <v>44613</v>
       </c>
       <c r="AS57" s="70">
         <f>Datos!AY5</f>
-        <v>0</v>
+        <v>44614</v>
       </c>
       <c r="AT57" s="70">
         <f>Datos!AZ5</f>
-        <v>0</v>
-      </c>
-      <c r="AU57" s="70">
-        <f>Datos!BA5</f>
-        <v>0</v>
-      </c>
-      <c r="AV57" s="70">
-        <f>Datos!BB5</f>
-        <v>0</v>
-      </c>
-      <c r="AW57" s="70">
-        <f>Datos!BC5</f>
-        <v>0</v>
-      </c>
-      <c r="AX57" s="70">
-        <f>Datos!BD5</f>
-        <v>0</v>
-      </c>
-      <c r="AY57" s="70">
-        <f>Datos!BE5</f>
-        <v>0</v>
-      </c>
-      <c r="AZ57" s="70">
-        <f>Datos!BF5</f>
-        <v>0</v>
-      </c>
-      <c r="BA57" s="70">
-        <f>Datos!BG5</f>
-        <v>0</v>
-      </c>
-      <c r="BB57" s="70">
-        <f>Datos!BH5</f>
-        <v>0</v>
-      </c>
-      <c r="BC57" s="70">
-        <f>Datos!BI5</f>
-        <v>0</v>
-      </c>
+        <v>44615</v>
+      </c>
+      <c r="AU57" s="126"/>
+      <c r="AV57" s="126"/>
+      <c r="AW57" s="126"/>
+      <c r="AX57" s="126"/>
+      <c r="AY57" s="126"/>
+      <c r="AZ57" s="126"/>
+      <c r="BA57" s="126"/>
+      <c r="BB57" s="126"/>
+      <c r="BC57" s="126"/>
     </row>
     <row r="58" spans="1:55" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="71" t="str">
@@ -22822,42 +23036,15 @@
         <f>SUMIF(Datos!$G$10:$G$997,$A58,Datos!AZ$10:AZ$997)</f>
         <v>0</v>
       </c>
-      <c r="AU58" s="72">
-        <f>SUMIF(Datos!$G$10:$G$997,$A58,Datos!BA$10:BA$997)</f>
-        <v>0</v>
-      </c>
-      <c r="AV58" s="72">
-        <f>SUMIF(Datos!$G$10:$G$997,$A58,Datos!BB$10:BB$997)</f>
-        <v>0</v>
-      </c>
-      <c r="AW58" s="72">
-        <f>SUMIF(Datos!$G$10:$G$997,$A58,Datos!BC$10:BC$997)</f>
-        <v>0</v>
-      </c>
-      <c r="AX58" s="72">
-        <f>SUMIF(Datos!$G$10:$G$997,$A58,Datos!BD$10:BD$997)</f>
-        <v>0</v>
-      </c>
-      <c r="AY58" s="72">
-        <f>SUMIF(Datos!$G$10:$G$997,$A58,Datos!BE$10:BE$997)</f>
-        <v>0</v>
-      </c>
-      <c r="AZ58" s="72">
-        <f>SUMIF(Datos!$G$10:$G$997,$A58,Datos!BF$10:BF$997)</f>
-        <v>0</v>
-      </c>
-      <c r="BA58" s="72">
-        <f>SUMIF(Datos!$G$10:$G$997,$A58,Datos!BG$10:BG$997)</f>
-        <v>0</v>
-      </c>
-      <c r="BB58" s="72">
-        <f>SUMIF(Datos!$G$10:$G$997,$A58,Datos!BH$10:BH$997)</f>
-        <v>0</v>
-      </c>
-      <c r="BC58" s="72">
-        <f>SUMIF(Datos!$G$10:$G$997,$A58,Datos!BI$10:BI$997)</f>
-        <v>0</v>
-      </c>
+      <c r="AU58" s="127"/>
+      <c r="AV58" s="127"/>
+      <c r="AW58" s="127"/>
+      <c r="AX58" s="127"/>
+      <c r="AY58" s="127"/>
+      <c r="AZ58" s="127"/>
+      <c r="BA58" s="127"/>
+      <c r="BB58" s="127"/>
+      <c r="BC58" s="127"/>
     </row>
     <row r="59" spans="1:55" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="71" t="str">
@@ -23044,42 +23231,15 @@
         <f>SUMIF(Datos!$G$10:$G$997,$A59,Datos!AZ$10:AZ$997)</f>
         <v>0</v>
       </c>
-      <c r="AU59" s="72">
-        <f>SUMIF(Datos!$G$10:$G$997,$A59,Datos!BA$10:BA$997)</f>
-        <v>0</v>
-      </c>
-      <c r="AV59" s="72">
-        <f>SUMIF(Datos!$G$10:$G$997,$A59,Datos!BB$10:BB$997)</f>
-        <v>0</v>
-      </c>
-      <c r="AW59" s="72">
-        <f>SUMIF(Datos!$G$10:$G$997,$A59,Datos!BC$10:BC$997)</f>
-        <v>0</v>
-      </c>
-      <c r="AX59" s="72">
-        <f>SUMIF(Datos!$G$10:$G$997,$A59,Datos!BD$10:BD$997)</f>
-        <v>0</v>
-      </c>
-      <c r="AY59" s="72">
-        <f>SUMIF(Datos!$G$10:$G$997,$A59,Datos!BE$10:BE$997)</f>
-        <v>0</v>
-      </c>
-      <c r="AZ59" s="72">
-        <f>SUMIF(Datos!$G$10:$G$997,$A59,Datos!BF$10:BF$997)</f>
-        <v>0</v>
-      </c>
-      <c r="BA59" s="72">
-        <f>SUMIF(Datos!$G$10:$G$997,$A59,Datos!BG$10:BG$997)</f>
-        <v>0</v>
-      </c>
-      <c r="BB59" s="72">
-        <f>SUMIF(Datos!$G$10:$G$997,$A59,Datos!BH$10:BH$997)</f>
-        <v>0</v>
-      </c>
-      <c r="BC59" s="72">
-        <f>SUMIF(Datos!$G$10:$G$997,$A59,Datos!BI$10:BI$997)</f>
-        <v>0</v>
-      </c>
+      <c r="AU59" s="127"/>
+      <c r="AV59" s="127"/>
+      <c r="AW59" s="127"/>
+      <c r="AX59" s="127"/>
+      <c r="AY59" s="127"/>
+      <c r="AZ59" s="127"/>
+      <c r="BA59" s="127"/>
+      <c r="BB59" s="127"/>
+      <c r="BC59" s="127"/>
     </row>
     <row r="60" spans="1:55" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="71" t="str">
@@ -23266,42 +23426,15 @@
         <f>SUMIF(Datos!$G$10:$G$997,$A60,Datos!AZ$10:AZ$997)</f>
         <v>0</v>
       </c>
-      <c r="AU60" s="72">
-        <f>SUMIF(Datos!$G$10:$G$997,$A60,Datos!BA$10:BA$997)</f>
-        <v>0</v>
-      </c>
-      <c r="AV60" s="72">
-        <f>SUMIF(Datos!$G$10:$G$997,$A60,Datos!BB$10:BB$997)</f>
-        <v>0</v>
-      </c>
-      <c r="AW60" s="72">
-        <f>SUMIF(Datos!$G$10:$G$997,$A60,Datos!BC$10:BC$997)</f>
-        <v>0</v>
-      </c>
-      <c r="AX60" s="72">
-        <f>SUMIF(Datos!$G$10:$G$997,$A60,Datos!BD$10:BD$997)</f>
-        <v>0</v>
-      </c>
-      <c r="AY60" s="72">
-        <f>SUMIF(Datos!$G$10:$G$997,$A60,Datos!BE$10:BE$997)</f>
-        <v>0</v>
-      </c>
-      <c r="AZ60" s="72">
-        <f>SUMIF(Datos!$G$10:$G$997,$A60,Datos!BF$10:BF$997)</f>
-        <v>0</v>
-      </c>
-      <c r="BA60" s="72">
-        <f>SUMIF(Datos!$G$10:$G$997,$A60,Datos!BG$10:BG$997)</f>
-        <v>0</v>
-      </c>
-      <c r="BB60" s="72">
-        <f>SUMIF(Datos!$G$10:$G$997,$A60,Datos!BH$10:BH$997)</f>
-        <v>0</v>
-      </c>
-      <c r="BC60" s="72">
-        <f>SUMIF(Datos!$G$10:$G$997,$A60,Datos!BI$10:BI$997)</f>
-        <v>0</v>
-      </c>
+      <c r="AU60" s="127"/>
+      <c r="AV60" s="127"/>
+      <c r="AW60" s="127"/>
+      <c r="AX60" s="127"/>
+      <c r="AY60" s="127"/>
+      <c r="AZ60" s="127"/>
+      <c r="BA60" s="127"/>
+      <c r="BB60" s="127"/>
+      <c r="BC60" s="127"/>
     </row>
     <row r="61" spans="1:55" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="71" t="str">
@@ -23484,41 +23617,15 @@
         <f>SUMIF(Datos!$G$10:$G$997,$A61,Datos!AZ$10:AZ$997)</f>
         <v>0</v>
       </c>
-      <c r="AU61" s="72">
-        <f>SUMIF(Datos!$G$10:$G$997,$A61,Datos!BA$10:BA$997)</f>
-        <v>0</v>
-      </c>
-      <c r="AV61" s="72">
-        <f>SUMIF(Datos!$G$10:$G$997,$A61,Datos!BB$10:BB$997)</f>
-        <v>0</v>
-      </c>
-      <c r="AW61" s="73">
-        <v>0</v>
-      </c>
-      <c r="AX61" s="72">
-        <f>SUMIF(Datos!$G$10:$G$997,$A61,Datos!BD$10:BD$997)</f>
-        <v>0</v>
-      </c>
-      <c r="AY61" s="72">
-        <f>SUMIF(Datos!$G$10:$G$997,$A61,Datos!BE$10:BE$997)</f>
-        <v>0</v>
-      </c>
-      <c r="AZ61" s="72">
-        <f>SUMIF(Datos!$G$10:$G$997,$A61,Datos!BF$10:BF$997)</f>
-        <v>0</v>
-      </c>
-      <c r="BA61" s="72">
-        <f>SUMIF(Datos!$G$10:$G$997,$A61,Datos!BG$10:BG$997)</f>
-        <v>0</v>
-      </c>
-      <c r="BB61" s="72">
-        <f>SUMIF(Datos!$G$10:$G$997,$A61,Datos!BH$10:BH$997)</f>
-        <v>0</v>
-      </c>
-      <c r="BC61" s="72">
-        <f>SUMIF(Datos!$G$10:$G$997,$A61,Datos!BI$10:BI$997)</f>
-        <v>0</v>
-      </c>
+      <c r="AU61" s="127"/>
+      <c r="AV61" s="127"/>
+      <c r="AW61" s="128"/>
+      <c r="AX61" s="127"/>
+      <c r="AY61" s="127"/>
+      <c r="AZ61" s="127"/>
+      <c r="BA61" s="127"/>
+      <c r="BB61" s="127"/>
+      <c r="BC61" s="127"/>
     </row>
     <row r="62" spans="1:55" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="71">
@@ -23700,41 +23807,15 @@
         <f>SUMIF(Datos!$G$10:$G$997,$A62,Datos!AZ$10:AZ$997)</f>
         <v>0</v>
       </c>
-      <c r="AU62" s="72">
-        <f>SUMIF(Datos!$G$10:$G$997,$A62,Datos!BA$10:BA$997)</f>
-        <v>0</v>
-      </c>
-      <c r="AV62" s="72">
-        <f>SUMIF(Datos!$G$10:$G$997,$A62,Datos!BB$10:BB$997)</f>
-        <v>0</v>
-      </c>
-      <c r="AW62" s="73">
-        <v>0</v>
-      </c>
-      <c r="AX62" s="72">
-        <f>SUMIF(Datos!$G$10:$G$997,$A62,Datos!BD$10:BD$997)</f>
-        <v>0</v>
-      </c>
-      <c r="AY62" s="72">
-        <f>SUMIF(Datos!$G$10:$G$997,$A62,Datos!BE$10:BE$997)</f>
-        <v>0</v>
-      </c>
-      <c r="AZ62" s="72">
-        <f>SUMIF(Datos!$G$10:$G$997,$A62,Datos!BF$10:BF$997)</f>
-        <v>0</v>
-      </c>
-      <c r="BA62" s="72">
-        <f>SUMIF(Datos!$G$10:$G$997,$A62,Datos!BG$10:BG$997)</f>
-        <v>0</v>
-      </c>
-      <c r="BB62" s="72">
-        <f>SUMIF(Datos!$G$10:$G$997,$A62,Datos!BH$10:BH$997)</f>
-        <v>0</v>
-      </c>
-      <c r="BC62" s="72">
-        <f>SUMIF(Datos!$G$10:$G$997,$A62,Datos!BI$10:BI$997)</f>
-        <v>0</v>
-      </c>
+      <c r="AU62" s="127"/>
+      <c r="AV62" s="127"/>
+      <c r="AW62" s="128"/>
+      <c r="AX62" s="127"/>
+      <c r="AY62" s="127"/>
+      <c r="AZ62" s="127"/>
+      <c r="BA62" s="127"/>
+      <c r="BB62" s="127"/>
+      <c r="BC62" s="127"/>
     </row>
     <row r="63" spans="1:55" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="71">
@@ -23921,42 +24002,15 @@
         <f>SUMIF(Datos!$G$10:$G$997,$A63,Datos!AZ$10:AZ$997)</f>
         <v>0</v>
       </c>
-      <c r="AU63" s="72">
-        <f>SUMIF(Datos!$G$10:$G$997,$A63,Datos!BA$10:BA$997)</f>
-        <v>0</v>
-      </c>
-      <c r="AV63" s="72">
-        <f>SUMIF(Datos!$G$10:$G$997,$A63,Datos!BB$10:BB$997)</f>
-        <v>0</v>
-      </c>
-      <c r="AW63" s="72">
-        <f>SUMIF(Datos!$G$10:$G$997,$A63,Datos!BC$10:BC$997)</f>
-        <v>0</v>
-      </c>
-      <c r="AX63" s="72">
-        <f>SUMIF(Datos!$G$10:$G$997,$A63,Datos!BD$10:BD$997)</f>
-        <v>0</v>
-      </c>
-      <c r="AY63" s="72">
-        <f>SUMIF(Datos!$G$10:$G$997,$A63,Datos!BE$10:BE$997)</f>
-        <v>0</v>
-      </c>
-      <c r="AZ63" s="72">
-        <f>SUMIF(Datos!$G$10:$G$997,$A63,Datos!BF$10:BF$997)</f>
-        <v>0</v>
-      </c>
-      <c r="BA63" s="72">
-        <f>SUMIF(Datos!$G$10:$G$997,$A63,Datos!BG$10:BG$997)</f>
-        <v>0</v>
-      </c>
-      <c r="BB63" s="72">
-        <f>SUMIF(Datos!$G$10:$G$997,$A63,Datos!BH$10:BH$997)</f>
-        <v>0</v>
-      </c>
-      <c r="BC63" s="72">
-        <f>SUMIF(Datos!$G$10:$G$997,$A63,Datos!BI$10:BI$997)</f>
-        <v>0</v>
-      </c>
+      <c r="AU63" s="127"/>
+      <c r="AV63" s="127"/>
+      <c r="AW63" s="127"/>
+      <c r="AX63" s="127"/>
+      <c r="AY63" s="127"/>
+      <c r="AZ63" s="127"/>
+      <c r="BA63" s="127"/>
+      <c r="BB63" s="127"/>
+      <c r="BC63" s="127"/>
     </row>
     <row r="64" spans="1:55" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="71">
@@ -24143,42 +24197,15 @@
         <f>SUMIF(Datos!$G$10:$G$997,$A64,Datos!AZ$10:AZ$997)</f>
         <v>0</v>
       </c>
-      <c r="AU64" s="72">
-        <f>SUMIF(Datos!$G$10:$G$997,$A64,Datos!BA$10:BA$997)</f>
-        <v>0</v>
-      </c>
-      <c r="AV64" s="72">
-        <f>SUMIF(Datos!$G$10:$G$997,$A64,Datos!BB$10:BB$997)</f>
-        <v>0</v>
-      </c>
-      <c r="AW64" s="72">
-        <f>SUMIF(Datos!$G$10:$G$997,$A64,Datos!BC$10:BC$997)</f>
-        <v>0</v>
-      </c>
-      <c r="AX64" s="72">
-        <f>SUMIF(Datos!$G$10:$G$997,$A64,Datos!BD$10:BD$997)</f>
-        <v>0</v>
-      </c>
-      <c r="AY64" s="72">
-        <f>SUMIF(Datos!$G$10:$G$997,$A64,Datos!BE$10:BE$997)</f>
-        <v>0</v>
-      </c>
-      <c r="AZ64" s="72">
-        <f>SUMIF(Datos!$G$10:$G$997,$A64,Datos!BF$10:BF$997)</f>
-        <v>0</v>
-      </c>
-      <c r="BA64" s="72">
-        <f>SUMIF(Datos!$G$10:$G$997,$A64,Datos!BG$10:BG$997)</f>
-        <v>0</v>
-      </c>
-      <c r="BB64" s="72">
-        <f>SUMIF(Datos!$G$10:$G$997,$A64,Datos!BH$10:BH$997)</f>
-        <v>0</v>
-      </c>
-      <c r="BC64" s="72">
-        <f>SUMIF(Datos!$G$10:$G$997,$A64,Datos!BI$10:BI$997)</f>
-        <v>0</v>
-      </c>
+      <c r="AU64" s="127"/>
+      <c r="AV64" s="127"/>
+      <c r="AW64" s="127"/>
+      <c r="AX64" s="127"/>
+      <c r="AY64" s="127"/>
+      <c r="AZ64" s="127"/>
+      <c r="BA64" s="127"/>
+      <c r="BB64" s="127"/>
+      <c r="BC64" s="127"/>
     </row>
     <row r="65" spans="1:55" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="71">
@@ -24365,42 +24392,15 @@
         <f>SUMIF(Datos!$G$10:$G$997,$A65,Datos!AZ$10:AZ$997)</f>
         <v>0</v>
       </c>
-      <c r="AU65" s="72">
-        <f>SUMIF(Datos!$G$10:$G$997,$A65,Datos!BA$10:BA$997)</f>
-        <v>0</v>
-      </c>
-      <c r="AV65" s="72">
-        <f>SUMIF(Datos!$G$10:$G$997,$A65,Datos!BB$10:BB$997)</f>
-        <v>0</v>
-      </c>
-      <c r="AW65" s="72">
-        <f>SUMIF(Datos!$G$10:$G$997,$A65,Datos!BC$10:BC$997)</f>
-        <v>0</v>
-      </c>
-      <c r="AX65" s="72">
-        <f>SUMIF(Datos!$G$10:$G$997,$A65,Datos!BD$10:BD$997)</f>
-        <v>0</v>
-      </c>
-      <c r="AY65" s="72">
-        <f>SUMIF(Datos!$G$10:$G$997,$A65,Datos!BE$10:BE$997)</f>
-        <v>0</v>
-      </c>
-      <c r="AZ65" s="72">
-        <f>SUMIF(Datos!$G$10:$G$997,$A65,Datos!BF$10:BF$997)</f>
-        <v>0</v>
-      </c>
-      <c r="BA65" s="72">
-        <f>SUMIF(Datos!$G$10:$G$997,$A65,Datos!BG$10:BG$997)</f>
-        <v>0</v>
-      </c>
-      <c r="BB65" s="72">
-        <f>SUMIF(Datos!$G$10:$G$997,$A65,Datos!BH$10:BH$997)</f>
-        <v>0</v>
-      </c>
-      <c r="BC65" s="72">
-        <f>SUMIF(Datos!$G$10:$G$997,$A65,Datos!BI$10:BI$997)</f>
-        <v>0</v>
-      </c>
+      <c r="AU65" s="127"/>
+      <c r="AV65" s="127"/>
+      <c r="AW65" s="127"/>
+      <c r="AX65" s="127"/>
+      <c r="AY65" s="127"/>
+      <c r="AZ65" s="127"/>
+      <c r="BA65" s="127"/>
+      <c r="BB65" s="127"/>
+      <c r="BC65" s="127"/>
     </row>
     <row r="66" spans="1:55" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="71">
@@ -24587,42 +24587,15 @@
         <f>SUMIF(Datos!$G$10:$G$997,$A66,Datos!AZ$10:AZ$997)</f>
         <v>0</v>
       </c>
-      <c r="AU66" s="72">
-        <f>SUMIF(Datos!$G$10:$G$997,$A66,Datos!BA$10:BA$997)</f>
-        <v>0</v>
-      </c>
-      <c r="AV66" s="72">
-        <f>SUMIF(Datos!$G$10:$G$997,$A66,Datos!BB$10:BB$997)</f>
-        <v>0</v>
-      </c>
-      <c r="AW66" s="72">
-        <f>SUMIF(Datos!$G$10:$G$997,$A66,Datos!BC$10:BC$997)</f>
-        <v>0</v>
-      </c>
-      <c r="AX66" s="72">
-        <f>SUMIF(Datos!$G$10:$G$997,$A66,Datos!BD$10:BD$997)</f>
-        <v>0</v>
-      </c>
-      <c r="AY66" s="72">
-        <f>SUMIF(Datos!$G$10:$G$997,$A66,Datos!BE$10:BE$997)</f>
-        <v>0</v>
-      </c>
-      <c r="AZ66" s="72">
-        <f>SUMIF(Datos!$G$10:$G$997,$A66,Datos!BF$10:BF$997)</f>
-        <v>0</v>
-      </c>
-      <c r="BA66" s="72">
-        <f>SUMIF(Datos!$G$10:$G$997,$A66,Datos!BG$10:BG$997)</f>
-        <v>0</v>
-      </c>
-      <c r="BB66" s="72">
-        <f>SUMIF(Datos!$G$10:$G$997,$A66,Datos!BH$10:BH$997)</f>
-        <v>0</v>
-      </c>
-      <c r="BC66" s="72">
-        <f>SUMIF(Datos!$G$10:$G$997,$A66,Datos!BI$10:BI$997)</f>
-        <v>0</v>
-      </c>
+      <c r="AU66" s="127"/>
+      <c r="AV66" s="127"/>
+      <c r="AW66" s="127"/>
+      <c r="AX66" s="127"/>
+      <c r="AY66" s="127"/>
+      <c r="AZ66" s="127"/>
+      <c r="BA66" s="127"/>
+      <c r="BB66" s="127"/>
+      <c r="BC66" s="127"/>
     </row>
     <row r="67" spans="1:55" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="71">
@@ -24809,42 +24782,15 @@
         <f>SUMIF(Datos!$G$10:$G$997,$A67,Datos!AZ$10:AZ$997)</f>
         <v>0</v>
       </c>
-      <c r="AU67" s="72">
-        <f>SUMIF(Datos!$G$10:$G$997,$A67,Datos!BA$10:BA$997)</f>
-        <v>0</v>
-      </c>
-      <c r="AV67" s="72">
-        <f>SUMIF(Datos!$G$10:$G$997,$A67,Datos!BB$10:BB$997)</f>
-        <v>0</v>
-      </c>
-      <c r="AW67" s="72">
-        <f>SUMIF(Datos!$G$10:$G$997,$A67,Datos!BC$10:BC$997)</f>
-        <v>0</v>
-      </c>
-      <c r="AX67" s="72">
-        <f>SUMIF(Datos!$G$10:$G$997,$A67,Datos!BD$10:BD$997)</f>
-        <v>0</v>
-      </c>
-      <c r="AY67" s="72">
-        <f>SUMIF(Datos!$G$10:$G$997,$A67,Datos!BE$10:BE$997)</f>
-        <v>0</v>
-      </c>
-      <c r="AZ67" s="72">
-        <f>SUMIF(Datos!$G$10:$G$997,$A67,Datos!BF$10:BF$997)</f>
-        <v>0</v>
-      </c>
-      <c r="BA67" s="72">
-        <f>SUMIF(Datos!$G$10:$G$997,$A67,Datos!BG$10:BG$997)</f>
-        <v>0</v>
-      </c>
-      <c r="BB67" s="72">
-        <f>SUMIF(Datos!$G$10:$G$997,$A67,Datos!BH$10:BH$997)</f>
-        <v>0</v>
-      </c>
-      <c r="BC67" s="72">
-        <f>SUMIF(Datos!$G$10:$G$997,$A67,Datos!BI$10:BI$997)</f>
-        <v>0</v>
-      </c>
+      <c r="AU67" s="127"/>
+      <c r="AV67" s="127"/>
+      <c r="AW67" s="127"/>
+      <c r="AX67" s="127"/>
+      <c r="AY67" s="127"/>
+      <c r="AZ67" s="127"/>
+      <c r="BA67" s="127"/>
+      <c r="BB67" s="127"/>
+      <c r="BC67" s="127"/>
     </row>
     <row r="68" spans="1:55" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="71">
@@ -25031,42 +24977,15 @@
         <f>SUMIF(Datos!$G$10:$G$997,$A68,Datos!AZ$10:AZ$997)</f>
         <v>0</v>
       </c>
-      <c r="AU68" s="72">
-        <f>SUMIF(Datos!$G$10:$G$997,$A68,Datos!BA$10:BA$997)</f>
-        <v>0</v>
-      </c>
-      <c r="AV68" s="72">
-        <f>SUMIF(Datos!$G$10:$G$997,$A68,Datos!BB$10:BB$997)</f>
-        <v>0</v>
-      </c>
-      <c r="AW68" s="72">
-        <f>SUMIF(Datos!$G$10:$G$997,$A68,Datos!BC$10:BC$997)</f>
-        <v>0</v>
-      </c>
-      <c r="AX68" s="72">
-        <f>SUMIF(Datos!$G$10:$G$997,$A68,Datos!BD$10:BD$997)</f>
-        <v>0</v>
-      </c>
-      <c r="AY68" s="72">
-        <f>SUMIF(Datos!$G$10:$G$997,$A68,Datos!BE$10:BE$997)</f>
-        <v>0</v>
-      </c>
-      <c r="AZ68" s="72">
-        <f>SUMIF(Datos!$G$10:$G$997,$A68,Datos!BF$10:BF$997)</f>
-        <v>0</v>
-      </c>
-      <c r="BA68" s="72">
-        <f>SUMIF(Datos!$G$10:$G$997,$A68,Datos!BG$10:BG$997)</f>
-        <v>0</v>
-      </c>
-      <c r="BB68" s="72">
-        <f>SUMIF(Datos!$G$10:$G$997,$A68,Datos!BH$10:BH$997)</f>
-        <v>0</v>
-      </c>
-      <c r="BC68" s="72">
-        <f>SUMIF(Datos!$G$10:$G$997,$A68,Datos!BI$10:BI$997)</f>
-        <v>0</v>
-      </c>
+      <c r="AU68" s="127"/>
+      <c r="AV68" s="127"/>
+      <c r="AW68" s="127"/>
+      <c r="AX68" s="127"/>
+      <c r="AY68" s="127"/>
+      <c r="AZ68" s="127"/>
+      <c r="BA68" s="127"/>
+      <c r="BB68" s="127"/>
+      <c r="BC68" s="127"/>
     </row>
     <row r="69" spans="1:55" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="71">
@@ -25253,42 +25172,15 @@
         <f>SUMIF(Datos!$G$10:$G$997,$A69,Datos!AZ$10:AZ$997)</f>
         <v>0</v>
       </c>
-      <c r="AU69" s="72">
-        <f>SUMIF(Datos!$G$10:$G$997,$A69,Datos!BA$10:BA$997)</f>
-        <v>0</v>
-      </c>
-      <c r="AV69" s="72">
-        <f>SUMIF(Datos!$G$10:$G$997,$A69,Datos!BB$10:BB$997)</f>
-        <v>0</v>
-      </c>
-      <c r="AW69" s="72">
-        <f>SUMIF(Datos!$G$10:$G$997,$A69,Datos!BC$10:BC$997)</f>
-        <v>0</v>
-      </c>
-      <c r="AX69" s="72">
-        <f>SUMIF(Datos!$G$10:$G$997,$A69,Datos!BD$10:BD$997)</f>
-        <v>0</v>
-      </c>
-      <c r="AY69" s="72">
-        <f>SUMIF(Datos!$G$10:$G$997,$A69,Datos!BE$10:BE$997)</f>
-        <v>0</v>
-      </c>
-      <c r="AZ69" s="72">
-        <f>SUMIF(Datos!$G$10:$G$997,$A69,Datos!BF$10:BF$997)</f>
-        <v>0</v>
-      </c>
-      <c r="BA69" s="72">
-        <f>SUMIF(Datos!$G$10:$G$997,$A69,Datos!BG$10:BG$997)</f>
-        <v>0</v>
-      </c>
-      <c r="BB69" s="72">
-        <f>SUMIF(Datos!$G$10:$G$997,$A69,Datos!BH$10:BH$997)</f>
-        <v>0</v>
-      </c>
-      <c r="BC69" s="72">
-        <f>SUMIF(Datos!$G$10:$G$997,$A69,Datos!BI$10:BI$997)</f>
-        <v>0</v>
-      </c>
+      <c r="AU69" s="127"/>
+      <c r="AV69" s="127"/>
+      <c r="AW69" s="127"/>
+      <c r="AX69" s="127"/>
+      <c r="AY69" s="127"/>
+      <c r="AZ69" s="127"/>
+      <c r="BA69" s="127"/>
+      <c r="BB69" s="127"/>
+      <c r="BC69" s="127"/>
     </row>
     <row r="70" spans="1:55" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B70" s="74"/>
